--- a/BOM/test_bom.xlsx
+++ b/BOM/test_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF422D75-98FC-4350-975A-8D0188CC4D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D158A51-1EC5-4647-813D-9FC4E55F813C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
+    <workbookView xWindow="-26850" yWindow="2325" windowWidth="23250" windowHeight="12480" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="477">
   <si>
     <t>Part Number</t>
   </si>
   <si>
-    <t>Instances</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>PN090</t>
   </si>
   <si>
-    <t>Corner Bracket Cover</t>
-  </si>
-  <si>
     <t>PN530</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
     <t>PN091</t>
   </si>
   <si>
-    <t>Limit Switch Cap</t>
-  </si>
-  <si>
     <t>PN910</t>
   </si>
   <si>
@@ -583,9 +574,6 @@
     <t>PN099</t>
   </si>
   <si>
-    <t>Y Axis Front Rail Guide</t>
-  </si>
-  <si>
     <t>PN094</t>
   </si>
   <si>
@@ -601,9 +589,6 @@
     <t>PN100</t>
   </si>
   <si>
-    <t>100 - XY - Wiring - Rear PTFE Tube Guide.stl</t>
-  </si>
-  <si>
     <t>PN643</t>
   </si>
   <si>
@@ -874,45 +859,24 @@
     <t>PN778</t>
   </si>
   <si>
-    <t>Front Left Panel</t>
-  </si>
-  <si>
     <t>PN781</t>
   </si>
   <si>
-    <t>Front Bottom Panel</t>
-  </si>
-  <si>
     <t>PN777</t>
   </si>
   <si>
-    <t>Right Floor Cover</t>
-  </si>
-  <si>
     <t>PN780</t>
   </si>
   <si>
-    <t>Front Top Panel</t>
-  </si>
-  <si>
     <t>PN772</t>
   </si>
   <si>
-    <t>Top Outer Panel</t>
-  </si>
-  <si>
     <t>PN773</t>
   </si>
   <si>
-    <t>Top Hatch</t>
-  </si>
-  <si>
     <t>PN782</t>
   </si>
   <si>
-    <t>Piano Hinge Anchor Block</t>
-  </si>
-  <si>
     <t>PN554</t>
   </si>
   <si>
@@ -934,27 +898,15 @@
     <t>PN787</t>
   </si>
   <si>
-    <t>PIR Foam, 1/2", Side Bottom</t>
-  </si>
-  <si>
     <t>PN786</t>
   </si>
   <si>
-    <t>PIR Foam, 1/2", Side Top</t>
-  </si>
-  <si>
     <t>PN771</t>
   </si>
   <si>
-    <t>Side Panel</t>
-  </si>
-  <si>
     <t>PN770</t>
   </si>
   <si>
-    <t>Rear Panel</t>
-  </si>
-  <si>
     <t>PN785</t>
   </si>
   <si>
@@ -1042,9 +994,6 @@
     <t>PN710</t>
   </si>
   <si>
-    <t>Door Frame Corner</t>
-  </si>
-  <si>
     <t>PN553</t>
   </si>
   <si>
@@ -1060,9 +1009,6 @@
     <t>PN761</t>
   </si>
   <si>
-    <t>Acrylic Sheet, 614x696x5mm</t>
-  </si>
-  <si>
     <t>PN711</t>
   </si>
   <si>
@@ -1246,39 +1192,21 @@
     <t>PN124</t>
   </si>
   <si>
-    <t>124 - Misc - Motion - R Z Slider Mount</t>
-  </si>
-  <si>
     <t>PN774</t>
   </si>
   <si>
-    <t>Floor Access Panel, Rear</t>
-  </si>
-  <si>
     <t>PN775</t>
   </si>
   <si>
-    <t>Floor Access Panel, Front</t>
-  </si>
-  <si>
     <t>PN796</t>
   </si>
   <si>
-    <t>Right Floor Cover, Rear</t>
-  </si>
-  <si>
     <t>PN776</t>
   </si>
   <si>
-    <t>Left Floor Cover, Front</t>
-  </si>
-  <si>
     <t>PN795</t>
   </si>
   <si>
-    <t>Left Floor Cover, Rear</t>
-  </si>
-  <si>
     <t>Heater Cartridge, 24V</t>
   </si>
   <si>
@@ -1297,9 +1225,6 @@
     <t>PN779</t>
   </si>
   <si>
-    <t>Front Right Panel</t>
-  </si>
-  <si>
     <t>PN790</t>
   </si>
   <si>
@@ -1324,34 +1249,223 @@
     <t>PIR Foam, 1/2", Side Floor Cover, Front</t>
   </si>
   <si>
-    <t>PN820</t>
-  </si>
-  <si>
-    <t>Fan Finger Guard, 80mm</t>
-  </si>
-  <si>
     <t>Switch, Panel Mount, &gt;5A VAC</t>
   </si>
   <si>
     <t>PN913</t>
   </si>
   <si>
-    <t>Fuse, 5x20mm, Glass, Fast Blow, 5A</t>
-  </si>
-  <si>
-    <t>IEC C14 Socket with Fuse</t>
-  </si>
-  <si>
-    <t>Raspberry Pi 4B 2GB</t>
-  </si>
-  <si>
-    <t>Signal Amplifier, SP901E</t>
-  </si>
-  <si>
     <t>Micro SD to SD Extension</t>
   </si>
   <si>
     <t>PN984</t>
+  </si>
+  <si>
+    <t>Misc - Frame - Corner Bracket Cover</t>
+  </si>
+  <si>
+    <t>PN824</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>PN111</t>
+  </si>
+  <si>
+    <t>Exterior - Skirt - Fan Finger Guard, 80mm</t>
+  </si>
+  <si>
+    <t>Fuse, 5x20, Glass, Fast Blow, 5A</t>
+  </si>
+  <si>
+    <t>IEC C13 Socket with Fuse Holder</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 Model B 2GB</t>
+  </si>
+  <si>
+    <t>PN802</t>
+  </si>
+  <si>
+    <t>Heatsink, 14x14x6</t>
+  </si>
+  <si>
+    <t>PN965</t>
+  </si>
+  <si>
+    <t>Micro HDMI to HDMI Adapter</t>
+  </si>
+  <si>
+    <t>PN823</t>
+  </si>
+  <si>
+    <t>Micro SD Card, Class A1</t>
+  </si>
+  <si>
+    <t>Signal Multiplier, SP901E</t>
+  </si>
+  <si>
+    <t>PN987</t>
+  </si>
+  <si>
+    <t>Buck Converter, 3A, USB C out</t>
+  </si>
+  <si>
+    <t>PN125</t>
+  </si>
+  <si>
+    <t>Misc - Frame - Pull Handle, 120mm</t>
+  </si>
+  <si>
+    <t>PIR Foam, 1/2", Generic Side</t>
+  </si>
+  <si>
+    <t>PIR Foam, 1/2", Right Side with Cutout</t>
+  </si>
+  <si>
+    <t>PIR Foam, 1/2", Left Side with Cutout</t>
+  </si>
+  <si>
+    <t>PN126</t>
+  </si>
+  <si>
+    <t>Misc - Frame - Pull Handle, Narrow, 120mm</t>
+  </si>
+  <si>
+    <t>Misc - Electrical - Limit Switch Cap</t>
+  </si>
+  <si>
+    <t>PN504</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 20mm, SHCS</t>
+  </si>
+  <si>
+    <t>XY - Wiring - Rear PTFE Tube Guide</t>
+  </si>
+  <si>
+    <t>PN123</t>
+  </si>
+  <si>
+    <t>Misc - Motion - L Z Slider Mount</t>
+  </si>
+  <si>
+    <t>Misc - Motion - R Z Slider Mount</t>
+  </si>
+  <si>
+    <t>PN127</t>
+  </si>
+  <si>
+    <t>Misc - Frame - Wire Conduit, Top (TPU)</t>
+  </si>
+  <si>
+    <t>PN128</t>
+  </si>
+  <si>
+    <t>Misc - Frame - Wire Conduit, Bottom (TPU)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>PN096</t>
+  </si>
+  <si>
+    <t>Misc - Wiring - T Slot Wire Anchor</t>
+  </si>
+  <si>
+    <t>XY - Motion - Y Axis Front Rail Guide</t>
+  </si>
+  <si>
+    <t>PN713</t>
+  </si>
+  <si>
+    <t>2020 Door Panel Gasket, 564mm</t>
+  </si>
+  <si>
+    <t>PN715</t>
+  </si>
+  <si>
+    <t>Piano Hinge, 24" x 2"</t>
+  </si>
+  <si>
+    <t>Wood Panel, Front Left</t>
+  </si>
+  <si>
+    <t>Wood Panel, Front Bottom</t>
+  </si>
+  <si>
+    <t>Wood Panel, Front Right</t>
+  </si>
+  <si>
+    <t>Wood Panel, Front Top</t>
+  </si>
+  <si>
+    <t>Wood Panel, Outside Top</t>
+  </si>
+  <si>
+    <t>Wood Panel, Top Hatch</t>
+  </si>
+  <si>
+    <t>Wood Strip, 1/2" x 1" x 610mmk</t>
+  </si>
+  <si>
+    <t>PN794</t>
+  </si>
+  <si>
+    <t>Wood Panel, Outside Right</t>
+  </si>
+  <si>
+    <t>Wood Panel, Outside Left</t>
+  </si>
+  <si>
+    <t>PN769</t>
+  </si>
+  <si>
+    <t>Wood Panel, Outside Rear</t>
+  </si>
+  <si>
+    <t>Corner Bracket, Door Frame</t>
+  </si>
+  <si>
+    <t>Acrylic Sheet, 613x694x5mm</t>
+  </si>
+  <si>
+    <t>PN579</t>
+  </si>
+  <si>
+    <t>Thumb Nut, M3</t>
+  </si>
+  <si>
+    <t>PN573</t>
+  </si>
+  <si>
+    <t>Tee Nut, 6mm Slot, M3, Drop In</t>
+  </si>
+  <si>
+    <t>Wood Panel, Floor Access, Rear</t>
+  </si>
+  <si>
+    <t>Wood Panel, Floor Access, Front</t>
+  </si>
+  <si>
+    <t>Wood Panel, Floor Cover, Right Rear</t>
+  </si>
+  <si>
+    <t>Wood Panel, Floor Cover, Front Right</t>
+  </si>
+  <si>
+    <t>Wood Panel, Floor Cover, Front Left</t>
+  </si>
+  <si>
+    <t>Wood Panel, Floor Cover, Left Rear</t>
+  </si>
+  <si>
+    <t>PN797</t>
+  </si>
+  <si>
+    <t>Foam Weatherstrip, 3/4" x 3/8", 580mm</t>
   </si>
 </sst>
 </file>
@@ -1407,17 +1521,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00837979-8A85-4B62-9846-A8DB24DD7FB2}" name="Table1" displayName="Table1" ref="A1:C221" totalsRowShown="0">
-  <autoFilter ref="A1:C221" xr:uid="{00837979-8A85-4B62-9846-A8DB24DD7FB2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C221">
-    <sortCondition ref="A1:A221"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C239" totalsRowShown="0">
+  <autoFilter ref="A1:C239" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C239">
+    <sortCondition ref="A1:A239"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1D14AC1E-A425-484B-9D04-58EE52C59DD2}" name="Part Number"/>
-    <tableColumn id="2" xr3:uid="{6FC68EB7-E0FD-43A0-9456-5EA85C6B26A0}" name="Instances"/>
-    <tableColumn id="3" xr3:uid="{7867F0F2-6F2B-4EFE-8F40-D863D800933B}" name="Name"/>
+    <tableColumn id="1" xr3:uid="{FC6F8B93-788A-4C4D-9422-DF0E521334EB}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{BD97E563-33B0-4594-BDB4-4460D0A93E7E}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{5C460862-4840-44A7-8CB3-D824B86CC6AC}" name="Count"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1718,17 +1832,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297929E-12BB-49F4-9053-3918289167CE}">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,2433 +1854,2632 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>358</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>359</v>
+        <v>340</v>
+      </c>
+      <c r="B16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>356</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>357</v>
+        <v>338</v>
+      </c>
+      <c r="B17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>228</v>
+        <v>222</v>
+      </c>
+      <c r="B20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21">
         <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="B23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>242</v>
+        <v>236</v>
+      </c>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>244</v>
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="B45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>271</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>272</v>
+        <v>266</v>
+      </c>
+      <c r="B46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>269</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>273</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>274</v>
+        <v>268</v>
+      </c>
+      <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>265</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="B49" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>275</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>276</v>
+        <v>270</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>254</v>
+        <v>248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>255</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>256</v>
+        <v>250</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>346</v>
-      </c>
-      <c r="B53">
+        <v>328</v>
+      </c>
+      <c r="B53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53">
         <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>257</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>258</v>
+        <v>252</v>
+      </c>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>259</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>263</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>368</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>369</v>
+        <v>350</v>
+      </c>
+      <c r="B57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>370</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>371</v>
+        <v>352</v>
+      </c>
+      <c r="B58" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59">
-        <v>42</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>408</v>
+      </c>
+      <c r="C59">
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>432</v>
+      </c>
+      <c r="C60">
         <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>308</v>
-      </c>
-      <c r="B61">
+        <v>292</v>
+      </c>
+      <c r="B61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61">
         <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>362</v>
-      </c>
-      <c r="B64">
+        <v>344</v>
+      </c>
+      <c r="B64" t="s">
+        <v>345</v>
+      </c>
+      <c r="C64">
         <v>4</v>
-      </c>
-      <c r="C64" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>181</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>182</v>
+        <v>444</v>
+      </c>
+      <c r="B65" t="s">
+        <v>445</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>188</v>
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>446</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>42</v>
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>435</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68">
         <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s">
         <v>52</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>33</v>
+        <v>411</v>
+      </c>
+      <c r="B76" t="s">
+        <v>412</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>320</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>321</v>
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>322</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>323</v>
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>326</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>327</v>
+        <v>304</v>
+      </c>
+      <c r="B79" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>402</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>403</v>
+        <v>306</v>
+      </c>
+      <c r="B80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>400</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>401</v>
+        <v>310</v>
+      </c>
+      <c r="B81" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>390</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>391</v>
+        <v>436</v>
+      </c>
+      <c r="B82" t="s">
+        <v>437</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>386</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="B83" t="s">
+        <v>438</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>394</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>395</v>
+        <v>425</v>
+      </c>
+      <c r="B84" t="s">
+        <v>426</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>372</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>373</v>
+        <v>430</v>
+      </c>
+      <c r="B85" t="s">
+        <v>431</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>378</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>379</v>
+        <v>439</v>
+      </c>
+      <c r="B86" t="s">
+        <v>440</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>378</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>379</v>
+        <v>441</v>
+      </c>
+      <c r="B87" t="s">
+        <v>442</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>376</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>377</v>
+        <v>382</v>
+      </c>
+      <c r="B88" t="s">
+        <v>383</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>392</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>393</v>
+        <v>372</v>
+      </c>
+      <c r="B89" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>384</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>385</v>
+        <v>368</v>
+      </c>
+      <c r="B90" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>382</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="C91" t="s">
-        <v>383</v>
+        <v>376</v>
+      </c>
+      <c r="B91" t="s">
+        <v>377</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>380</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>381</v>
+        <v>354</v>
+      </c>
+      <c r="B92" t="s">
+        <v>355</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>142</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>143</v>
+        <v>360</v>
+      </c>
+      <c r="B93" t="s">
+        <v>361</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>135</v>
+        <v>358</v>
+      </c>
+      <c r="B94" t="s">
+        <v>359</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>170</v>
+        <v>374</v>
+      </c>
+      <c r="B95" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96">
-        <v>32</v>
-      </c>
-      <c r="C96" t="s">
-        <v>29</v>
+        <v>366</v>
+      </c>
+      <c r="B96" t="s">
+        <v>367</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97">
-        <v>140</v>
-      </c>
-      <c r="C97" t="s">
-        <v>31</v>
+        <v>364</v>
+      </c>
+      <c r="B97" t="s">
+        <v>365</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
-      </c>
-      <c r="B98">
-        <v>20</v>
-      </c>
-      <c r="C98" t="s">
-        <v>200</v>
+        <v>362</v>
+      </c>
+      <c r="B98" t="s">
+        <v>363</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>201</v>
-      </c>
-      <c r="B99">
-        <v>12</v>
-      </c>
-      <c r="C99" t="s">
-        <v>202</v>
+        <v>139</v>
+      </c>
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
-      </c>
-      <c r="B100">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="B100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101">
-        <v>16</v>
-      </c>
-      <c r="C101" t="s">
-        <v>48</v>
+        <v>166</v>
+      </c>
+      <c r="B101" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>136</v>
-      </c>
-      <c r="B102">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>137</v>
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102">
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>126</v>
-      </c>
-      <c r="B103">
-        <v>6</v>
-      </c>
-      <c r="C103" t="s">
-        <v>127</v>
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103">
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104">
-        <v>45</v>
-      </c>
-      <c r="C104" t="s">
-        <v>14</v>
+        <v>194</v>
+      </c>
+      <c r="B104" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105">
-        <v>212</v>
-      </c>
-      <c r="C105" t="s">
-        <v>10</v>
+        <v>196</v>
+      </c>
+      <c r="B105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105">
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106">
-        <v>42</v>
-      </c>
-      <c r="C106" t="s">
-        <v>79</v>
+        <v>433</v>
+      </c>
+      <c r="B106" t="s">
+        <v>434</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107">
-        <v>12</v>
-      </c>
-      <c r="C107" t="s">
-        <v>103</v>
+        <v>121</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>364</v>
-      </c>
-      <c r="B108">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>365</v>
+        <v>45</v>
+      </c>
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>209</v>
-      </c>
-      <c r="B109">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s">
-        <v>210</v>
+        <v>133</v>
+      </c>
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109">
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>179</v>
-      </c>
-      <c r="B110">
-        <v>24</v>
-      </c>
-      <c r="C110" t="s">
-        <v>180</v>
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>235</v>
-      </c>
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>236</v>
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>336</v>
-      </c>
-      <c r="B112">
         <v>8</v>
       </c>
-      <c r="C112" t="s">
-        <v>337</v>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>292</v>
-      </c>
-      <c r="B113">
-        <v>24</v>
-      </c>
-      <c r="C113" t="s">
-        <v>293</v>
+        <v>76</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113">
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>344</v>
-      </c>
-      <c r="B114">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>345</v>
+        <v>99</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114">
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>56</v>
-      </c>
-      <c r="B115">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>57</v>
+        <v>346</v>
+      </c>
+      <c r="B115" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>207</v>
-      </c>
-      <c r="B116">
+        <v>204</v>
+      </c>
+      <c r="B116" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116">
         <v>4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>123</v>
+        <v>176</v>
+      </c>
+      <c r="B117" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117">
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>185</v>
-      </c>
-      <c r="B118">
+        <v>230</v>
+      </c>
+      <c r="B118" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118">
         <v>4</v>
-      </c>
-      <c r="C118" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119">
-        <v>273</v>
-      </c>
-      <c r="C119" t="s">
+        <v>319</v>
+      </c>
+      <c r="B119" t="s">
+        <v>320</v>
+      </c>
+      <c r="C119">
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120">
-        <v>70</v>
-      </c>
-      <c r="C120" t="s">
-        <v>93</v>
+        <v>280</v>
+      </c>
+      <c r="B120" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120">
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121">
-        <v>213</v>
-      </c>
-      <c r="C121" t="s">
-        <v>6</v>
+        <v>326</v>
+      </c>
+      <c r="B121" t="s">
+        <v>327</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>66</v>
-      </c>
-      <c r="B122">
-        <v>25</v>
-      </c>
-      <c r="C122" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122">
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>350</v>
-      </c>
-      <c r="B123">
-        <v>2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>351</v>
+        <v>202</v>
+      </c>
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>237</v>
-      </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>238</v>
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124">
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>26</v>
-      </c>
-      <c r="B125">
-        <v>133</v>
-      </c>
-      <c r="C125" t="s">
-        <v>27</v>
+        <v>467</v>
+      </c>
+      <c r="B125" t="s">
+        <v>468</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>74</v>
-      </c>
-      <c r="B126">
-        <v>8</v>
-      </c>
-      <c r="C126" t="s">
-        <v>75</v>
+        <v>181</v>
+      </c>
+      <c r="B126" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>64</v>
-      </c>
-      <c r="B127">
-        <v>20</v>
-      </c>
-      <c r="C127" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>94</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128">
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>70</v>
-      </c>
-      <c r="B129">
-        <v>2</v>
-      </c>
-      <c r="C129" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="B130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130">
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>68</v>
-      </c>
-      <c r="B131">
-        <v>10</v>
-      </c>
-      <c r="C131" t="s">
-        <v>69</v>
+        <v>465</v>
+      </c>
+      <c r="B131" t="s">
+        <v>466</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>360</v>
-      </c>
-      <c r="B132">
-        <v>2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>361</v>
+        <v>332</v>
+      </c>
+      <c r="B132" t="s">
+        <v>333</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>415</v>
-      </c>
-      <c r="B133">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>417</v>
+        <v>232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>416</v>
-      </c>
-      <c r="B134">
-        <v>5</v>
-      </c>
-      <c r="C134" t="s">
-        <v>418</v>
+        <v>24</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>239</v>
-      </c>
-      <c r="B135">
-        <v>2</v>
-      </c>
-      <c r="C135" t="s">
-        <v>240</v>
+        <v>72</v>
+      </c>
+      <c r="B135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>189</v>
-      </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136" t="s">
-        <v>190</v>
+        <v>62</v>
+      </c>
+      <c r="B136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136">
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137">
-        <v>52</v>
-      </c>
-      <c r="C137" t="s">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="B137" t="s">
+        <v>92</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>177</v>
-      </c>
-      <c r="B138">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>178</v>
+        <v>68</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>316</v>
-      </c>
-      <c r="B139">
-        <v>4</v>
-      </c>
-      <c r="C139" t="s">
-        <v>317</v>
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>334</v>
-      </c>
-      <c r="B140">
-        <v>4</v>
-      </c>
-      <c r="C140" t="s">
-        <v>335</v>
+        <v>66</v>
+      </c>
+      <c r="B140" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>342</v>
       </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B141" t="s">
         <v>343</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>330</v>
-      </c>
-      <c r="B142">
-        <v>2</v>
-      </c>
-      <c r="C142" t="s">
-        <v>331</v>
+        <v>391</v>
+      </c>
+      <c r="B142" t="s">
+        <v>393</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>330</v>
-      </c>
-      <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143" t="s">
-        <v>331</v>
+        <v>392</v>
+      </c>
+      <c r="B143" t="s">
+        <v>394</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>104</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>105</v>
+        <v>234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>60</v>
-      </c>
-      <c r="B145">
-        <v>2</v>
-      </c>
-      <c r="C145" t="s">
-        <v>61</v>
+        <v>184</v>
+      </c>
+      <c r="B145" t="s">
+        <v>185</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>62</v>
-      </c>
-      <c r="B146">
-        <v>6</v>
-      </c>
-      <c r="C146" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>231</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
-        <v>232</v>
+        <v>174</v>
+      </c>
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>225</v>
-      </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="C148" t="s">
-        <v>226</v>
+        <v>300</v>
+      </c>
+      <c r="B148" t="s">
+        <v>301</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>229</v>
-      </c>
-      <c r="B149">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s">
-        <v>230</v>
+        <v>318</v>
+      </c>
+      <c r="B149" t="s">
+        <v>463</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>221</v>
-      </c>
-      <c r="B150">
-        <v>2</v>
-      </c>
-      <c r="C150" t="s">
-        <v>222</v>
+        <v>324</v>
+      </c>
+      <c r="B150" t="s">
+        <v>325</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>219</v>
-      </c>
-      <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>220</v>
+        <v>447</v>
+      </c>
+      <c r="B151" t="s">
+        <v>448</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>310</v>
-      </c>
-      <c r="B152">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>311</v>
+        <v>314</v>
+      </c>
+      <c r="B152" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>312</v>
-      </c>
-      <c r="B153">
-        <v>4</v>
-      </c>
-      <c r="C153" t="s">
-        <v>313</v>
+        <v>449</v>
+      </c>
+      <c r="B153" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>314</v>
-      </c>
-      <c r="B154">
-        <v>2</v>
-      </c>
-      <c r="C154" t="s">
-        <v>315</v>
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>318</v>
-      </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
-      <c r="C155" t="s">
-        <v>319</v>
+        <v>58</v>
+      </c>
+      <c r="B155" t="s">
+        <v>59</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>328</v>
-      </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="C156" t="s">
-        <v>329</v>
+        <v>60</v>
+      </c>
+      <c r="B156" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>332</v>
-      </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-      <c r="C157" t="s">
-        <v>333</v>
+        <v>60</v>
+      </c>
+      <c r="B157" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>338</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>339</v>
+        <v>226</v>
+      </c>
+      <c r="B158" t="s">
+        <v>227</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>340</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
-        <v>341</v>
+        <v>220</v>
+      </c>
+      <c r="B159" t="s">
+        <v>221</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>304</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>305</v>
+        <v>224</v>
+      </c>
+      <c r="B160" t="s">
+        <v>225</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>302</v>
-      </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-      <c r="C161" t="s">
-        <v>303</v>
+        <v>216</v>
+      </c>
+      <c r="B161" t="s">
+        <v>217</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>286</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
-        <v>287</v>
+        <v>214</v>
+      </c>
+      <c r="B162" t="s">
+        <v>215</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>288</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
-        <v>289</v>
+        <v>294</v>
+      </c>
+      <c r="B163" t="s">
+        <v>295</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>404</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>405</v>
+        <v>296</v>
+      </c>
+      <c r="B164" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>406</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
-        <v>407</v>
+        <v>298</v>
+      </c>
+      <c r="B165" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>410</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>411</v>
+        <v>302</v>
+      </c>
+      <c r="B166" t="s">
+        <v>303</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>282</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>283</v>
+        <v>312</v>
+      </c>
+      <c r="B167" t="s">
+        <v>313</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>278</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="B168" t="s">
+        <v>317</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>419</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>420</v>
+        <v>321</v>
+      </c>
+      <c r="B169" t="s">
+        <v>322</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>284</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170" t="s">
-        <v>285</v>
+        <v>323</v>
+      </c>
+      <c r="B170" t="s">
+        <v>464</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>280</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>281</v>
+        <v>461</v>
+      </c>
+      <c r="B171" t="s">
+        <v>462</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>290</v>
-      </c>
-      <c r="B172">
-        <v>2</v>
-      </c>
-      <c r="C172" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="B172" t="s">
+        <v>459</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>306</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-      <c r="C173" t="s">
-        <v>307</v>
+        <v>288</v>
+      </c>
+      <c r="B173" t="s">
+        <v>460</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>300</v>
-      </c>
-      <c r="B174">
-        <v>2</v>
-      </c>
-      <c r="C174" t="s">
-        <v>301</v>
+        <v>277</v>
+      </c>
+      <c r="B174" t="s">
+        <v>455</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>298</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-      <c r="C175" t="s">
-        <v>299</v>
+        <v>278</v>
+      </c>
+      <c r="B175" t="s">
+        <v>456</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>294</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176" t="s">
-        <v>295</v>
+        <v>385</v>
+      </c>
+      <c r="B176" t="s">
+        <v>469</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>296</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
-        <v>297</v>
+        <v>386</v>
+      </c>
+      <c r="B177" t="s">
+        <v>470</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>421</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>425</v>
+        <v>388</v>
+      </c>
+      <c r="B178" t="s">
+        <v>473</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>422</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179" t="s">
-        <v>426</v>
+        <v>275</v>
+      </c>
+      <c r="B179" t="s">
+        <v>472</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>423</v>
-      </c>
-      <c r="B180">
-        <v>2</v>
-      </c>
-      <c r="C180" t="s">
-        <v>427</v>
+        <v>273</v>
+      </c>
+      <c r="B180" t="s">
+        <v>451</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>424</v>
-      </c>
-      <c r="B181">
-        <v>2</v>
-      </c>
-      <c r="C181" t="s">
-        <v>428</v>
+        <v>395</v>
+      </c>
+      <c r="B181" t="s">
+        <v>453</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>412</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>413</v>
+        <v>276</v>
+      </c>
+      <c r="B182" t="s">
+        <v>454</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>408</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>409</v>
+        <v>274</v>
+      </c>
+      <c r="B183" t="s">
+        <v>452</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>354</v>
-      </c>
-      <c r="B184">
-        <v>2</v>
-      </c>
-      <c r="C184" t="s">
-        <v>355</v>
+        <v>279</v>
+      </c>
+      <c r="B184" t="s">
+        <v>457</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>138</v>
-      </c>
-      <c r="B185">
-        <v>3</v>
-      </c>
-      <c r="C185" t="s">
-        <v>139</v>
+        <v>290</v>
+      </c>
+      <c r="B185" t="s">
+        <v>291</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>211</v>
-      </c>
-      <c r="B186">
-        <v>4</v>
-      </c>
-      <c r="C186" t="s">
-        <v>212</v>
+        <v>287</v>
+      </c>
+      <c r="B186" t="s">
+        <v>429</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>213</v>
-      </c>
-      <c r="B187">
-        <v>4</v>
-      </c>
-      <c r="C187" t="s">
-        <v>214</v>
+        <v>286</v>
+      </c>
+      <c r="B187" t="s">
+        <v>428</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>205</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188" t="s">
-        <v>206</v>
+        <v>282</v>
+      </c>
+      <c r="B188" t="s">
+        <v>283</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>203</v>
-      </c>
-      <c r="B189">
-        <v>4</v>
-      </c>
-      <c r="C189" t="s">
-        <v>204</v>
+        <v>284</v>
+      </c>
+      <c r="B189" t="s">
+        <v>285</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>217</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>218</v>
+        <v>396</v>
+      </c>
+      <c r="B190" t="s">
+        <v>400</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>157</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191" t="s">
-        <v>158</v>
+        <v>397</v>
+      </c>
+      <c r="B191" t="s">
+        <v>401</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>396</v>
-      </c>
-      <c r="B192">
-        <v>2</v>
-      </c>
-      <c r="C192" t="s">
-        <v>397</v>
+        <v>398</v>
+      </c>
+      <c r="B192" t="s">
+        <v>402</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>398</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
         <v>399</v>
+      </c>
+      <c r="B193" t="s">
+        <v>403</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>374</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
-        <v>375</v>
+        <v>458</v>
+      </c>
+      <c r="B194" t="s">
+        <v>427</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>429</v>
-      </c>
-      <c r="B195">
-        <v>3</v>
-      </c>
-      <c r="C195" t="s">
-        <v>430</v>
+        <v>389</v>
+      </c>
+      <c r="B195" t="s">
+        <v>474</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>324</v>
-      </c>
-      <c r="B196">
-        <v>2</v>
-      </c>
-      <c r="C196" t="s">
-        <v>325</v>
+        <v>387</v>
+      </c>
+      <c r="B196" t="s">
+        <v>471</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>352</v>
-      </c>
-      <c r="B197">
-        <v>2</v>
-      </c>
-      <c r="C197" t="s">
-        <v>353</v>
+        <v>475</v>
+      </c>
+      <c r="B197" t="s">
+        <v>476</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>233</v>
-      </c>
-      <c r="B198">
-        <v>2</v>
-      </c>
-      <c r="C198" t="s">
-        <v>234</v>
+        <v>336</v>
+      </c>
+      <c r="B198" t="s">
+        <v>337</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>140</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="B199" t="s">
+        <v>136</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>90</v>
-      </c>
-      <c r="B200">
-        <v>4</v>
-      </c>
-      <c r="C200" t="s">
-        <v>91</v>
+        <v>416</v>
+      </c>
+      <c r="B200" t="s">
+        <v>417</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>19</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>431</v>
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>207</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>261</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
-        <v>262</v>
+        <v>208</v>
+      </c>
+      <c r="B202" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>432</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>433</v>
+        <v>200</v>
+      </c>
+      <c r="B203" t="s">
+        <v>201</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>149</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
-        <v>150</v>
+        <v>198</v>
+      </c>
+      <c r="B204" t="s">
+        <v>199</v>
+      </c>
+      <c r="C204">
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>173</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
-        <v>174</v>
+        <v>212</v>
+      </c>
+      <c r="B205" t="s">
+        <v>213</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>45</v>
-      </c>
-      <c r="B206">
-        <v>3</v>
-      </c>
-      <c r="C206" t="s">
-        <v>46</v>
+        <v>154</v>
+      </c>
+      <c r="B206" t="s">
+        <v>155</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>388</v>
-      </c>
-      <c r="B207">
-        <v>2</v>
-      </c>
-      <c r="C207" t="s">
-        <v>389</v>
+        <v>378</v>
+      </c>
+      <c r="B207" t="s">
+        <v>379</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>39</v>
-      </c>
-      <c r="B208">
-        <v>2</v>
-      </c>
-      <c r="C208" t="s">
-        <v>40</v>
+        <v>380</v>
+      </c>
+      <c r="B208" t="s">
+        <v>381</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>49</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
-        <v>50</v>
+        <v>356</v>
+      </c>
+      <c r="B209" t="s">
+        <v>357</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>37</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
-        <v>38</v>
+        <v>308</v>
+      </c>
+      <c r="B210" t="s">
+        <v>309</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>34</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>437</v>
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>55</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>434</v>
+        <v>409</v>
+      </c>
+      <c r="B212" t="s">
+        <v>410</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>348</v>
-      </c>
-      <c r="B213">
-        <v>36</v>
-      </c>
-      <c r="C213" t="s">
-        <v>349</v>
+        <v>334</v>
+      </c>
+      <c r="B213" t="s">
+        <v>335</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>145</v>
-      </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214" t="s">
-        <v>146</v>
+        <v>228</v>
+      </c>
+      <c r="B214" t="s">
+        <v>229</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>144</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>414</v>
+        <v>137</v>
+      </c>
+      <c r="B215" t="s">
+        <v>138</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>251</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>252</v>
+        <v>87</v>
+      </c>
+      <c r="B216" t="s">
+        <v>88</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>249</v>
-      </c>
-      <c r="B217">
-        <v>5</v>
-      </c>
-      <c r="C217" t="s">
-        <v>250</v>
+        <v>17</v>
+      </c>
+      <c r="B217" t="s">
+        <v>404</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>24</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>25</v>
+        <v>256</v>
+      </c>
+      <c r="B218" t="s">
+        <v>257</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>438</v>
-      </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>435</v>
+        <v>405</v>
+      </c>
+      <c r="B219" t="s">
+        <v>413</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>366</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>367</v>
+        <v>146</v>
+      </c>
+      <c r="B220" t="s">
+        <v>147</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>277</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221" t="s">
-        <v>436</v>
+        <v>170</v>
+      </c>
+      <c r="B221" t="s">
+        <v>171</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" t="s">
+        <v>44</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>370</v>
+      </c>
+      <c r="B223" t="s">
+        <v>371</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>37</v>
+      </c>
+      <c r="B224" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>47</v>
+      </c>
+      <c r="B225" t="s">
+        <v>48</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>35</v>
+      </c>
+      <c r="B226" t="s">
+        <v>36</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>32</v>
+      </c>
+      <c r="B227" t="s">
+        <v>406</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>53</v>
+      </c>
+      <c r="B228" t="s">
+        <v>414</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>418</v>
+      </c>
+      <c r="B229" t="s">
+        <v>419</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>330</v>
+      </c>
+      <c r="B230" t="s">
+        <v>331</v>
+      </c>
+      <c r="C230">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>142</v>
+      </c>
+      <c r="B231" t="s">
+        <v>143</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>141</v>
+      </c>
+      <c r="B232" t="s">
+        <v>390</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>246</v>
+      </c>
+      <c r="B233" t="s">
+        <v>247</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>244</v>
+      </c>
+      <c r="B234" t="s">
+        <v>245</v>
+      </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" t="s">
+        <v>23</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>407</v>
+      </c>
+      <c r="B236" t="s">
+        <v>415</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>348</v>
+      </c>
+      <c r="B237" t="s">
+        <v>349</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>272</v>
+      </c>
+      <c r="B238" t="s">
+        <v>422</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>423</v>
+      </c>
+      <c r="B239" t="s">
+        <v>424</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BOM/test_bom.xlsx
+++ b/BOM/test_bom.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D158A51-1EC5-4647-813D-9FC4E55F813C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AEA9F5-2456-4BBA-BDA8-63BA054FF331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="2325" windowWidth="23250" windowHeight="12480" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
+    <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" firstSheet="1" activeTab="5" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master List" sheetId="1" r:id="rId1"/>
+    <sheet name="AB Steppers" sheetId="3" r:id="rId2"/>
+    <sheet name="Lighting" sheetId="5" r:id="rId3"/>
+    <sheet name="Filtration" sheetId="6" r:id="rId4"/>
+    <sheet name="Flooring" sheetId="7" r:id="rId5"/>
+    <sheet name="Skirt" sheetId="8" r:id="rId6"/>
+    <sheet name="Tallies" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="507">
   <si>
     <t>Part Number</t>
   </si>
@@ -502,9 +508,6 @@
     <t>PN815</t>
   </si>
   <si>
-    <t>PTFE Tube</t>
-  </si>
-  <si>
     <t>PN035</t>
   </si>
   <si>
@@ -997,9 +1000,6 @@
     <t>PN553</t>
   </si>
   <si>
-    <t>Screw, M5 x 12mm SHCS</t>
-  </si>
-  <si>
     <t>PN760</t>
   </si>
   <si>
@@ -1303,9 +1303,6 @@
     <t>Micro SD Card, Class A1</t>
   </si>
   <si>
-    <t>Signal Multiplier, SP901E</t>
-  </si>
-  <si>
     <t>PN987</t>
   </si>
   <si>
@@ -1408,9 +1405,6 @@
     <t>Wood Panel, Top Hatch</t>
   </si>
   <si>
-    <t>Wood Strip, 1/2" x 1" x 610mmk</t>
-  </si>
-  <si>
     <t>PN794</t>
   </si>
   <si>
@@ -1466,6 +1460,108 @@
   </si>
   <si>
     <t>Foam Weatherstrip, 3/4" x 3/8", 580mm</t>
+  </si>
+  <si>
+    <t>Wood Strip, 1/2" x 1" x 610mm</t>
+  </si>
+  <si>
+    <t>Screw, M5 x 16mm SHCS</t>
+  </si>
+  <si>
+    <t>PTFE Tube, 4mm OD, 2mm ID</t>
+  </si>
+  <si>
+    <t>PN914</t>
+  </si>
+  <si>
+    <t>Wire loom, PET, 1/4"</t>
+  </si>
+  <si>
+    <t>PN915</t>
+  </si>
+  <si>
+    <t>Wire loom, PET, 1/2"</t>
+  </si>
+  <si>
+    <t>PN917</t>
+  </si>
+  <si>
+    <t>Hookup Wire, Silicone, 22 AWG</t>
+  </si>
+  <si>
+    <t>Hookup Wire, Silicone, 24 AWG</t>
+  </si>
+  <si>
+    <t>Hookup Wire, Silicone, 16 AWG</t>
+  </si>
+  <si>
+    <t>PN918</t>
+  </si>
+  <si>
+    <t>PN919</t>
+  </si>
+  <si>
+    <t>IEC C14 Socket with Fuse Holder</t>
+  </si>
+  <si>
+    <t>PN966</t>
+  </si>
+  <si>
+    <t>IEC C13 Cable, 1m</t>
+  </si>
+  <si>
+    <t>Signal Amplifier, SP901E</t>
+  </si>
+  <si>
+    <t>PN556</t>
+  </si>
+  <si>
+    <t>Set Screw, M4-0.7 x 4mm</t>
+  </si>
+  <si>
+    <t>PN582</t>
+  </si>
+  <si>
+    <t>Lock Collar, 8mm</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>M5 Roll In Tee Nuts</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Lock Washers</t>
+  </si>
+  <si>
+    <t>Heatsinks are mounted</t>
+  </si>
+  <si>
+    <t>Couplers are not as specified in BOM, 4 x PN502 not included</t>
+  </si>
+  <si>
+    <t>Substituted PN 573 for PN576</t>
+  </si>
+  <si>
+    <t>Missing PN082</t>
+  </si>
+  <si>
+    <t>Missing PN970</t>
+  </si>
+  <si>
+    <t>Missing 201</t>
+  </si>
+  <si>
+    <t>Reprint 207</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Avail</t>
   </si>
 </sst>
 </file>
@@ -1521,15 +1617,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C239" totalsRowShown="0">
-  <autoFilter ref="A1:C239" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C239">
-    <sortCondition ref="A1:A239"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C246" totalsRowShown="0">
+  <autoFilter ref="A1:C246" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C238">
+    <sortCondition ref="A1:A238"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FC6F8B93-788A-4C4D-9422-DF0E521334EB}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{BD97E563-33B0-4594-BDB4-4460D0A93E7E}" name="Name"/>
     <tableColumn id="3" xr3:uid="{5C460862-4840-44A7-8CB3-D824B86CC6AC}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}" name="Table3" displayName="Table3" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition ref="A1:A18"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{55908124-FD07-4485-A06F-F39F864404D9}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{F7DD62CF-2F6F-49F3-8DAA-443B0C927674}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{AE298627-46B5-4DCB-B408-560D27EDABF9}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}" name="Table4" displayName="Table4" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3AF7D325-0943-46F9-897D-E7521A342680}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{C092271C-F91E-44C7-ADFA-C042DEC6AE09}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{2B282264-1A8D-4C09-A5AB-8DA50A2B70E6}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2721D8E-FF54-4C4B-9716-5A71478D85AF}" name="Table5" displayName="Table5" ref="A1:C20" totalsRowShown="0">
+  <autoFilter ref="A1:C20" xr:uid="{C2721D8E-FF54-4C4B-9716-5A71478D85AF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
+    <sortCondition ref="A1:A20"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{93A93604-A646-4105-930F-45B7D2AD40F8}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{BB7FE1E8-0ECA-4A54-903F-04AA1C175641}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{16B73E6F-4178-4111-A7A6-C6911FB66C19}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D28BA82F-5FED-42EA-969F-DBA3D6BA4061}" name="Table6" displayName="Table6" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{D28BA82F-5FED-42EA-969F-DBA3D6BA4061}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
+    <sortCondition ref="A1:A33"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D09F8866-4240-455E-ABBC-5F24C26BA305}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{DEE7A7AF-F8F9-49F3-8B8F-7B3541756EB8}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{5FF84E4F-FE87-4543-B351-24452CC4335E}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{80D4FB9A-F3F3-4A2E-9414-0980B707BD61}" name="Avail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C935238-2807-420D-8F9A-F58A7A512EA7}" name="Table7" displayName="Table7" ref="A1:D30" totalsRowShown="0">
+  <autoFilter ref="A1:D30" xr:uid="{9C935238-2807-420D-8F9A-F58A7A512EA7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+    <sortCondition ref="A1:A30"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{93C4A395-1B71-4230-B08B-9D6D2768F8FA}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{A69167FE-6956-4452-B3DF-3B7D9598E7BA}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{406A105C-B216-48CE-B154-45754D6A5BD5}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{4B857374-76FD-4BF5-AD26-91C987194486}" name="Avail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1832,17 +2002,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297929E-12BB-49F4-9053-3918289167CE}">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1854,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,10 +2183,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2024,10 +2194,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2057,10 +2227,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
         <v>222</v>
-      </c>
-      <c r="B20" t="s">
-        <v>223</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2068,10 +2238,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
         <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>219</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2079,10 +2249,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
         <v>188</v>
-      </c>
-      <c r="B22" t="s">
-        <v>189</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2090,10 +2260,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
         <v>186</v>
-      </c>
-      <c r="B23" t="s">
-        <v>187</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2101,10 +2271,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
         <v>236</v>
-      </c>
-      <c r="B24" t="s">
-        <v>237</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2112,10 +2282,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" t="s">
         <v>238</v>
-      </c>
-      <c r="B25" t="s">
-        <v>239</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2123,10 +2293,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" t="s">
         <v>240</v>
-      </c>
-      <c r="B26" t="s">
-        <v>241</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2134,10 +2304,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="s">
         <v>242</v>
-      </c>
-      <c r="B27" t="s">
-        <v>243</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2145,10 +2315,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
         <v>190</v>
-      </c>
-      <c r="B28" t="s">
-        <v>191</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2156,10 +2326,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" t="s">
         <v>192</v>
-      </c>
-      <c r="B29" t="s">
-        <v>193</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2167,10 +2337,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" t="s">
         <v>210</v>
-      </c>
-      <c r="B30" t="s">
-        <v>211</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2211,10 +2381,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" t="s">
         <v>160</v>
-      </c>
-      <c r="B34" t="s">
-        <v>161</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2222,10 +2392,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
         <v>158</v>
-      </c>
-      <c r="B35" t="s">
-        <v>159</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2233,10 +2403,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
         <v>156</v>
-      </c>
-      <c r="B36" t="s">
-        <v>157</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2288,10 +2458,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
         <v>172</v>
-      </c>
-      <c r="B41" t="s">
-        <v>173</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2299,10 +2469,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
         <v>168</v>
-      </c>
-      <c r="B42" t="s">
-        <v>169</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2310,10 +2480,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
         <v>164</v>
-      </c>
-      <c r="B43" t="s">
-        <v>165</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2321,10 +2491,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
         <v>162</v>
-      </c>
-      <c r="B44" t="s">
-        <v>163</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2332,10 +2502,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" t="s">
         <v>262</v>
-      </c>
-      <c r="B45" t="s">
-        <v>263</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2343,10 +2513,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" t="s">
         <v>266</v>
-      </c>
-      <c r="B46" t="s">
-        <v>267</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2354,10 +2524,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
         <v>264</v>
-      </c>
-      <c r="B47" t="s">
-        <v>265</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2365,10 +2535,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" t="s">
         <v>268</v>
-      </c>
-      <c r="B48" t="s">
-        <v>269</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2376,10 +2546,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" t="s">
         <v>260</v>
-      </c>
-      <c r="B49" t="s">
-        <v>261</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2387,10 +2557,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" t="s">
         <v>270</v>
-      </c>
-      <c r="B50" t="s">
-        <v>271</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2398,10 +2568,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
         <v>248</v>
-      </c>
-      <c r="B51" t="s">
-        <v>249</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2409,10 +2579,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" t="s">
         <v>250</v>
-      </c>
-      <c r="B52" t="s">
-        <v>251</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2420,10 +2590,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -2431,10 +2601,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" t="s">
         <v>252</v>
-      </c>
-      <c r="B54" t="s">
-        <v>253</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2442,10 +2612,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" t="s">
         <v>254</v>
-      </c>
-      <c r="B55" t="s">
-        <v>255</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2453,10 +2623,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s">
         <v>258</v>
-      </c>
-      <c r="B56" t="s">
-        <v>259</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -2464,10 +2634,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2475,10 +2645,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2489,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C59">
         <v>46</v>
@@ -2500,7 +2670,7 @@
         <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -2508,10 +2678,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" t="s">
         <v>292</v>
-      </c>
-      <c r="B61" t="s">
-        <v>293</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2530,10 +2700,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
         <v>179</v>
-      </c>
-      <c r="B63" t="s">
-        <v>180</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -2541,10 +2711,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -2552,21 +2722,21 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B65" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2574,10 +2744,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2673,10 +2843,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B76" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2706,10 +2876,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" t="s">
         <v>304</v>
-      </c>
-      <c r="B79" t="s">
-        <v>305</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2717,10 +2887,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" t="s">
         <v>306</v>
-      </c>
-      <c r="B80" t="s">
-        <v>307</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2728,10 +2898,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>309</v>
+      </c>
+      <c r="B81" t="s">
         <v>310</v>
-      </c>
-      <c r="B81" t="s">
-        <v>311</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2739,10 +2909,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B82" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2750,10 +2920,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B83" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2761,10 +2931,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B84" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2772,10 +2942,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B85" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2783,10 +2953,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B86" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -2794,10 +2964,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B87" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -2805,10 +2975,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B88" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2816,10 +2986,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -2827,10 +2997,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B90" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2838,10 +3008,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2849,10 +3019,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2860,10 +3030,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B93" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -2871,10 +3041,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B94" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2882,10 +3052,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2893,10 +3063,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B96" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2904,10 +3074,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2915,10 +3085,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B98" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2948,10 +3118,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" t="s">
         <v>166</v>
-      </c>
-      <c r="B101" t="s">
-        <v>167</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2981,10 +3151,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" t="s">
         <v>194</v>
-      </c>
-      <c r="B104" t="s">
-        <v>195</v>
       </c>
       <c r="C104">
         <v>20</v>
@@ -2992,10 +3162,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" t="s">
         <v>196</v>
-      </c>
-      <c r="B105" t="s">
-        <v>197</v>
       </c>
       <c r="C105">
         <v>16</v>
@@ -3003,10 +3173,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B106" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -3075,7 +3245,7 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3102,10 +3272,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -3113,10 +3283,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" t="s">
         <v>204</v>
-      </c>
-      <c r="B116" t="s">
-        <v>205</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -3124,10 +3294,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" t="s">
         <v>176</v>
-      </c>
-      <c r="B117" t="s">
-        <v>177</v>
       </c>
       <c r="C117">
         <v>24</v>
@@ -3135,10 +3305,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" t="s">
         <v>230</v>
-      </c>
-      <c r="B118" t="s">
-        <v>231</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -3146,10 +3316,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B119" t="s">
-        <v>320</v>
+        <v>474</v>
       </c>
       <c r="C119">
         <v>8</v>
@@ -3157,10 +3327,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" t="s">
         <v>280</v>
-      </c>
-      <c r="B120" t="s">
-        <v>281</v>
       </c>
       <c r="C120">
         <v>24</v>
@@ -3168,10 +3338,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B121" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C121">
         <v>8</v>
@@ -3190,10 +3360,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123" t="s">
         <v>202</v>
-      </c>
-      <c r="B123" t="s">
-        <v>203</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -3212,10 +3382,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B125" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C125">
         <v>10</v>
@@ -3223,10 +3393,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" t="s">
         <v>181</v>
-      </c>
-      <c r="B126" t="s">
-        <v>182</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -3240,7 +3410,7 @@
         <v>7</v>
       </c>
       <c r="C127">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="C129">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3278,10 +3448,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B131" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -3289,10 +3459,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B132" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -3300,10 +3470,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" t="s">
         <v>232</v>
-      </c>
-      <c r="B133" t="s">
-        <v>233</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -3388,10 +3558,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B141" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -3399,10 +3569,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" t="s">
         <v>391</v>
-      </c>
-      <c r="B142" t="s">
-        <v>393</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -3410,10 +3580,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>390</v>
+      </c>
+      <c r="B143" t="s">
         <v>392</v>
-      </c>
-      <c r="B143" t="s">
-        <v>394</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -3421,10 +3591,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" t="s">
         <v>234</v>
-      </c>
-      <c r="B144" t="s">
-        <v>235</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -3432,10 +3602,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>183</v>
+      </c>
+      <c r="B145" t="s">
         <v>184</v>
-      </c>
-      <c r="B145" t="s">
-        <v>185</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -3454,10 +3624,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>173</v>
+      </c>
+      <c r="B147" t="s">
         <v>174</v>
-      </c>
-      <c r="B147" t="s">
-        <v>175</v>
       </c>
       <c r="C147">
         <v>12</v>
@@ -3465,10 +3635,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>299</v>
+      </c>
+      <c r="B148" t="s">
         <v>300</v>
-      </c>
-      <c r="B148" t="s">
-        <v>301</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -3476,10 +3646,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B149" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -3487,10 +3657,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B150" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -3498,10 +3668,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -3509,10 +3679,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" t="s">
         <v>314</v>
-      </c>
-      <c r="B152" t="s">
-        <v>315</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -3520,10 +3690,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B153" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3559,37 +3729,37 @@
         <v>61</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="B157" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -3597,10 +3767,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B160" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -3608,10 +3778,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B161" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -3619,21 +3789,21 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -3641,21 +3811,21 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B164" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -3663,10 +3833,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -3674,10 +3844,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B167" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -3685,13 +3855,13 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B168" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3699,7 +3869,7 @@
         <v>321</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>460</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -3707,10 +3877,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>323</v>
+        <v>457</v>
       </c>
       <c r="B170" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -3718,10 +3888,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>461</v>
+        <v>288</v>
       </c>
       <c r="B171" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -3729,10 +3899,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B172" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -3740,10 +3910,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B173" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -3754,7 +3924,7 @@
         <v>277</v>
       </c>
       <c r="B174" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -3762,10 +3932,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="B175" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -3773,10 +3943,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B176" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3787,7 +3957,7 @@
         <v>386</v>
       </c>
       <c r="B177" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -3795,10 +3965,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>388</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -3806,10 +3976,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -3817,10 +3987,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="B180" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -3828,10 +3998,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="B181" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -3839,10 +4009,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -3850,32 +4020,32 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B183" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B184" t="s">
-        <v>457</v>
+        <v>290</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>291</v>
+        <v>426</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -3883,10 +4053,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -3894,10 +4064,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B187" t="s">
-        <v>428</v>
+        <v>282</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3905,10 +4075,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -3916,10 +4086,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="B189" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -3927,10 +4097,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B190" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -3938,21 +4108,21 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B192" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -3960,10 +4130,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="B193" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -3971,21 +4141,21 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>458</v>
+        <v>387</v>
       </c>
       <c r="B194" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B195" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -3993,21 +4163,21 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
       <c r="B196" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>475</v>
+        <v>334</v>
       </c>
       <c r="B197" t="s">
-        <v>476</v>
+        <v>335</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -4015,43 +4185,43 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="B198" t="s">
-        <v>337</v>
+        <v>136</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="B199" t="s">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>416</v>
+        <v>205</v>
       </c>
       <c r="B200" t="s">
-        <v>417</v>
+        <v>206</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C201">
         <v>4</v>
@@ -4059,43 +4229,43 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
+        <v>475</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -4103,13 +4273,13 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>154</v>
+        <v>376</v>
       </c>
       <c r="B206" t="s">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,15 +4290,15 @@
         <v>379</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="B208" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -4136,32 +4306,32 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="B209" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
       <c r="B210" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B211" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -4169,21 +4339,21 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="B212" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="B213" t="s">
-        <v>335</v>
+        <v>228</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -4191,43 +4361,43 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="B214" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B215" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>402</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="B217" t="s">
-        <v>404</v>
+        <v>256</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4235,10 +4405,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="B218" t="s">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -4246,10 +4416,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>405</v>
+        <v>146</v>
       </c>
       <c r="B219" t="s">
-        <v>413</v>
+        <v>147</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -4257,10 +4427,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B220" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -4268,32 +4438,32 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="B221" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="B222" t="s">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>370</v>
+        <v>37</v>
       </c>
       <c r="B223" t="s">
-        <v>371</v>
+        <v>38</v>
       </c>
       <c r="C223">
         <v>2</v>
@@ -4301,21 +4471,21 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B224" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -4323,10 +4493,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>36</v>
+        <v>404</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -4334,10 +4504,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B227" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -4345,10 +4515,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>53</v>
+        <v>416</v>
       </c>
       <c r="B228" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -4356,32 +4526,32 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>418</v>
+        <v>328</v>
       </c>
       <c r="B229" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>330</v>
+        <v>142</v>
       </c>
       <c r="B230" t="s">
-        <v>331</v>
+        <v>143</v>
       </c>
       <c r="C230">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B231" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -4389,10 +4559,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="B232" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -4400,32 +4570,32 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B233" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>22</v>
+        <v>405</v>
       </c>
       <c r="B235" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -4433,10 +4603,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="B236" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4444,10 +4614,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="B237" t="s">
-        <v>349</v>
+        <v>489</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -4455,10 +4625,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>272</v>
+        <v>420</v>
       </c>
       <c r="B238" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -4466,13 +4636,81 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="B239" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" t="s">
+        <v>479</v>
+      </c>
+      <c r="C240">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>484</v>
+      </c>
+      <c r="B242" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>485</v>
+      </c>
+      <c r="B243" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>487</v>
+      </c>
+      <c r="B244" t="s">
+        <v>488</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>490</v>
+      </c>
+      <c r="B245" t="s">
+        <v>491</v>
+      </c>
+      <c r="C245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>492</v>
+      </c>
+      <c r="B246" t="s">
+        <v>493</v>
+      </c>
+      <c r="C246">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4482,4 +4720,1498 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29E18D-652C-4A97-B7BE-A196409BC841}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315DE4A-0F8E-4C14-9E41-384EE060A77F}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98333D0-FDD1-4E6D-ACC9-96B08C3E6F19}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EDB47-D3CC-45F5-8D37-FE89DA3FE47C}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>398</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>397</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>470</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>467</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>471</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870EFC34-E00C-4479-A4BB-4D899D5F0E07}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64737948-8DE0-4D28-95C1-827DC9284B68}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOM/test_bom.xlsx
+++ b/BOM/test_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AEA9F5-2456-4BBA-BDA8-63BA054FF331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38FCC79-4210-4745-93C9-6D71DE7AEB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="3405" windowWidth="23250" windowHeight="12480" firstSheet="1" activeTab="5" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
+    <workbookView xWindow="-25845" yWindow="2850" windowWidth="23250" windowHeight="12480" firstSheet="7" activeTab="9" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="Filtration" sheetId="6" r:id="rId4"/>
     <sheet name="Flooring" sheetId="7" r:id="rId5"/>
     <sheet name="Skirt" sheetId="8" r:id="rId6"/>
-    <sheet name="Tallies" sheetId="4" r:id="rId7"/>
+    <sheet name="Camera Stand" sheetId="9" r:id="rId7"/>
+    <sheet name="Undercarriage" sheetId="10" r:id="rId8"/>
+    <sheet name="Inner Frame Brackets" sheetId="12" r:id="rId9"/>
+    <sheet name="Hotend Gantry" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="522">
   <si>
     <t>Part Number</t>
   </si>
@@ -1528,40 +1531,85 @@
     <t>Description</t>
   </si>
   <si>
-    <t>M5 Roll In Tee Nuts</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Lock Washers</t>
-  </si>
-  <si>
     <t>Heatsinks are mounted</t>
   </si>
   <si>
-    <t>Couplers are not as specified in BOM, 4 x PN502 not included</t>
-  </si>
-  <si>
     <t>Substituted PN 573 for PN576</t>
   </si>
   <si>
-    <t>Missing PN082</t>
-  </si>
-  <si>
-    <t>Missing PN970</t>
-  </si>
-  <si>
-    <t>Missing 201</t>
-  </si>
-  <si>
-    <t>Reprint 207</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Avail</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>*PN970 needs to be cut and prepped</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*Couplers are not as specified in BOM, 4 x PN502 not included</t>
+  </si>
+  <si>
+    <t>*x</t>
+  </si>
+  <si>
+    <t>Exterior - Skirt - 80mm Fan Grill</t>
+  </si>
+  <si>
+    <t>x*</t>
+  </si>
+  <si>
+    <t>*PN962 is not M3 threaded and has its own fasteners.</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>**913 is currently 15A and should be 5</t>
+  </si>
+  <si>
+    <t>Avail.</t>
+  </si>
+  <si>
+    <t>Exterior - Skirt - Grill</t>
+  </si>
+  <si>
+    <t>Signal Multiplier, SP901E</t>
+  </si>
+  <si>
+    <t>PN557</t>
+  </si>
+  <si>
+    <t>Screw, M4-0.7 x 8mm BHCS</t>
+  </si>
+  <si>
+    <t>*8 removed; too long</t>
+  </si>
+  <si>
+    <t>**model has as M3x6mm, actually M4x8mm</t>
+  </si>
+  <si>
+    <t>*** Buck converter needs mounting mechanism</t>
+  </si>
+  <si>
+    <t>***x</t>
+  </si>
+  <si>
+    <t>PTFE Tube</t>
+  </si>
+  <si>
+    <t>*Part cooling fan uses 2x M3x6mm, not 8mm</t>
+  </si>
+  <si>
+    <t>Thermistor, NTC 100K, E3D Cartridge</t>
   </si>
 </sst>
 </file>
@@ -1617,10 +1665,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C246" totalsRowShown="0">
-  <autoFilter ref="A1:C246" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C238">
-    <sortCondition ref="A1:A238"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C247" totalsRowShown="0">
+  <autoFilter ref="A1:C247" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C239">
+    <sortCondition ref="A1:A239"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FC6F8B93-788A-4C4D-9422-DF0E521334EB}" name="Part Number"/>
@@ -1631,43 +1679,63 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3C5AFEE9-5178-4855-BADF-576CA95F04F8}" name="Table10" displayName="Table10" ref="A1:E33" totalsRowShown="0">
+  <autoFilter ref="A1:E33" xr:uid="{3C5AFEE9-5178-4855-BADF-576CA95F04F8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+    <sortCondition ref="A1:A33"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EF6ADD95-A767-4CA6-8176-E21756FF320C}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{CCBFDD98-EB98-4A20-AB9D-5E5291287630}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{D3A790CF-21EE-41F4-8A70-808A848F24AA}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{D41968A1-A22C-498E-BF2E-6C973736E6EB}" name="Avail."/>
+    <tableColumn id="5" xr3:uid="{CE18C32B-C99D-48F0-8D9F-86AAC4F61812}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}" name="Table3" displayName="Table3" ref="A1:C18" totalsRowShown="0">
-  <autoFilter ref="A1:C18" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}" name="Table3" displayName="Table3" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
     <sortCondition ref="A1:A18"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{55908124-FD07-4485-A06F-F39F864404D9}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{F7DD62CF-2F6F-49F3-8DAA-443B0C927674}" name="Count"/>
     <tableColumn id="3" xr3:uid="{AE298627-46B5-4DCB-B408-560D27EDABF9}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{C6B7A359-C715-47B1-B7AE-50E9178202C0}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}" name="Table4" displayName="Table4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}" name="Table4" displayName="Table4" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3AF7D325-0943-46F9-897D-E7521A342680}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{C092271C-F91E-44C7-ADFA-C042DEC6AE09}" name="Count"/>
     <tableColumn id="3" xr3:uid="{2B282264-1A8D-4C09-A5AB-8DA50A2B70E6}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{240641DC-D504-445C-B55D-38AD67A340A9}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2721D8E-FF54-4C4B-9716-5A71478D85AF}" name="Table5" displayName="Table5" ref="A1:C20" totalsRowShown="0">
-  <autoFilter ref="A1:C20" xr:uid="{C2721D8E-FF54-4C4B-9716-5A71478D85AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2721D8E-FF54-4C4B-9716-5A71478D85AF}" name="Table5" displayName="Table5" ref="A1:D20" totalsRowShown="0">
+  <autoFilter ref="A1:D20" xr:uid="{C2721D8E-FF54-4C4B-9716-5A71478D85AF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
     <sortCondition ref="A1:A20"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{93A93604-A646-4105-930F-45B7D2AD40F8}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{BB7FE1E8-0ECA-4A54-903F-04AA1C175641}" name="Count"/>
     <tableColumn id="3" xr3:uid="{16B73E6F-4178-4111-A7A6-C6911FB66C19}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{F772FB23-618C-42C3-AC12-C9C027CF3B0D}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1690,16 +1758,68 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C935238-2807-420D-8F9A-F58A7A512EA7}" name="Table7" displayName="Table7" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30" xr:uid="{9C935238-2807-420D-8F9A-F58A7A512EA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C935238-2807-420D-8F9A-F58A7A512EA7}" name="Table7" displayName="Table7" ref="A1:E31" totalsRowShown="0">
+  <autoFilter ref="A1:E31" xr:uid="{9C935238-2807-420D-8F9A-F58A7A512EA7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{93C4A395-1B71-4230-B08B-9D6D2768F8FA}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{A69167FE-6956-4452-B3DF-3B7D9598E7BA}" name="Count"/>
     <tableColumn id="3" xr3:uid="{406A105C-B216-48CE-B154-45754D6A5BD5}" name="Description"/>
     <tableColumn id="4" xr3:uid="{4B857374-76FD-4BF5-AD26-91C987194486}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{AB54824E-0C4F-4B64-AAB4-697A3A392B2A}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E509259-0E4E-47B3-BD8A-C0E9F8AF6634}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{6E509259-0E4E-47B3-BD8A-C0E9F8AF6634}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{13832F1B-3F8F-448C-B3EB-626D45847F57}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{E70B629F-42DF-416C-A55C-FB4F15491046}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{55B76CE3-FD6B-4DBE-B59E-164DC94038BC}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{A4B9DE81-2AE6-4E5A-ABF8-279EA8E2DA15}" name="Avail."/>
+    <tableColumn id="5" xr3:uid="{7B194C8E-9F19-4E8E-97AC-3AED5BE4B45D}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5AE6B19B-26D4-4AA5-B342-D4AD4C9B9E6E}" name="Table8" displayName="Table8" ref="A1:E33" totalsRowShown="0">
+  <autoFilter ref="A1:E33" xr:uid="{5AE6B19B-26D4-4AA5-B342-D4AD4C9B9E6E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E32">
+    <sortCondition ref="A1:A32"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{758E172B-5E79-4A66-A3D0-682956540FA0}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{9C71F4EA-F57C-467C-ACCA-2CA3420CBFAD}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{FCBEF686-7DE2-4E7E-AEAF-A3874EB8803C}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{1E2FD9C6-1515-410E-BDB5-F979E9E2F79C}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{87CDEB52-FF25-48C5-B895-334A039FC807}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B191DBE4-1DEC-4792-B3C8-07E318974212}" name="Table9" displayName="Table9" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{B191DBE4-1DEC-4792-B3C8-07E318974212}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{39B36E9E-AA60-4FF5-BEE1-2FFB9FC7F05A}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{16248FB2-A214-4288-B87D-82F6F46B6188}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{B538C434-C952-4EBE-ACDA-977D9EB4D52C}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{0BE0E2DB-005D-40AA-82E9-CC53F372B9DC}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{80C9E52C-DFC8-4A0E-922B-4C47C3F662D1}" name="Missing"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2002,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297929E-12BB-49F4-9053-3918289167CE}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,7 +3255,7 @@
         <v>27</v>
       </c>
       <c r="C102">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3146,7 +3266,7 @@
         <v>29</v>
       </c>
       <c r="C103">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3157,7 +3277,7 @@
         <v>194</v>
       </c>
       <c r="C104">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,7 +3299,7 @@
         <v>431</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3190,7 +3310,7 @@
         <v>122</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3201,7 +3321,7 @@
         <v>46</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3234,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="C111">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,120 +3469,120 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>513</v>
       </c>
       <c r="B122" t="s">
-        <v>55</v>
+        <v>514</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="B124" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>463</v>
+        <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>464</v>
+        <v>120</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>464</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C127">
-        <v>282</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C128">
-        <v>70</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C129">
-        <v>224</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C130">
-        <v>29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>461</v>
+        <v>64</v>
       </c>
       <c r="B131" t="s">
-        <v>462</v>
+        <v>65</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="B132" t="s">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -3470,10 +3590,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -3481,54 +3601,54 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="C134">
-        <v>133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C136">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B137" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -3536,54 +3656,54 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B139" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="B141" t="s">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="B142" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B143" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -3591,21 +3711,21 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="B144" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -3613,43 +3733,43 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="C146">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="B148" t="s">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B149" t="s">
-        <v>459</v>
+        <v>300</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -3657,21 +3777,21 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>459</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="B151" t="s">
-        <v>445</v>
+        <v>323</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -3679,10 +3799,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>313</v>
+        <v>444</v>
       </c>
       <c r="B152" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -3690,21 +3810,21 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="B153" t="s">
-        <v>447</v>
+        <v>314</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>101</v>
+        <v>446</v>
       </c>
       <c r="B154" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -3712,54 +3832,54 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B155" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -3767,10 +3887,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -3778,10 +3898,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -3789,21 +3909,21 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="B162" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B163" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -3811,21 +3931,21 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B164" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B165" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -3833,10 +3953,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B166" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -3844,10 +3964,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B167" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -3855,21 +3975,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B168" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B169" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -3877,10 +3997,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="B170" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -3888,10 +4008,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>288</v>
+        <v>457</v>
       </c>
       <c r="B171" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -3899,10 +4019,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B172" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -3910,10 +4030,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B173" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -3921,10 +4041,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B174" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -3932,10 +4052,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="B175" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -3943,10 +4063,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B176" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3954,10 +4074,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B177" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -3965,10 +4085,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="B178" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -3976,10 +4096,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B179" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -3987,10 +4107,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -3998,10 +4118,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="B181" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4009,10 +4129,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B182" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4020,32 +4140,32 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B184" t="s">
-        <v>290</v>
+        <v>473</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B185" t="s">
-        <v>426</v>
+        <v>290</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -4053,10 +4173,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4064,10 +4184,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>425</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -4075,10 +4195,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B188" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4086,10 +4206,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>394</v>
+        <v>283</v>
       </c>
       <c r="B189" t="s">
-        <v>398</v>
+        <v>284</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -4097,10 +4217,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B190" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -4108,21 +4228,21 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B191" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B192" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -4130,10 +4250,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="B193" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -4141,21 +4261,21 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="B194" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B195" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -4163,21 +4283,21 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
       <c r="B196" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>334</v>
+        <v>471</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
+        <v>472</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -4185,43 +4305,43 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="B198" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="B199" t="s">
-        <v>415</v>
+        <v>136</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>414</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>415</v>
       </c>
       <c r="C200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B201" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C201">
         <v>4</v>
@@ -4229,43 +4349,43 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B203" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B204" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>475</v>
+        <v>212</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -4273,32 +4393,32 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>376</v>
+        <v>154</v>
       </c>
       <c r="B206" t="s">
-        <v>377</v>
+        <v>475</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B207" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B208" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -4306,32 +4426,32 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="B210" t="s">
-        <v>419</v>
+        <v>308</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B211" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -4339,21 +4459,21 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
       <c r="B212" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="B213" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -4361,43 +4481,43 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="B214" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B216" t="s">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="B217" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4405,10 +4525,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="B218" t="s">
-        <v>411</v>
+        <v>256</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -4416,10 +4536,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>146</v>
+        <v>403</v>
       </c>
       <c r="B219" t="s">
-        <v>147</v>
+        <v>411</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -4427,10 +4547,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B220" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -4438,32 +4558,32 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B221" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="B222" t="s">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>37</v>
+        <v>368</v>
       </c>
       <c r="B223" t="s">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="C223">
         <v>2</v>
@@ -4471,21 +4591,21 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B224" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B225" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -4493,10 +4613,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B226" t="s">
-        <v>404</v>
+        <v>36</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -4504,10 +4624,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B227" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -4515,10 +4635,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>416</v>
+        <v>53</v>
       </c>
       <c r="B228" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -4526,32 +4646,32 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="B229" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
       <c r="C229">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>142</v>
+        <v>328</v>
       </c>
       <c r="B230" t="s">
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B231" t="s">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -4559,10 +4679,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="B232" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -4570,32 +4690,32 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B233" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C233">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="B235" t="s">
-        <v>413</v>
+        <v>23</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -4603,10 +4723,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="B236" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4614,10 +4734,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="B237" t="s">
-        <v>489</v>
+        <v>347</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -4625,10 +4745,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>420</v>
+        <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -4636,80 +4756,91 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="B239" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B240" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C240">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B241" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="C241">
+        <v>1.2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B242" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B243" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B244" t="s">
-        <v>488</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
+        <v>483</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B245" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C245">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" t="s">
+        <v>491</v>
+      </c>
+      <c r="C246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>492</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>493</v>
       </c>
-      <c r="C246">
+      <c r="C247">
         <v>6</v>
       </c>
     </row>
@@ -4722,12 +4853,507 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15A9DFF-E6C1-4CA7-960D-8F586FF4F1A3}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>497</v>
+      </c>
+      <c r="E19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>497</v>
+      </c>
+      <c r="E20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>519</v>
+      </c>
+      <c r="D28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>521</v>
+      </c>
+      <c r="D32" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29E18D-652C-4A97-B7BE-A196409BC841}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4736,7 +5362,7 @@
     <col min="3" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4746,8 +5372,11 @@
       <c r="C1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>338</v>
       </c>
@@ -4757,8 +5386,11 @@
       <c r="C2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>336</v>
       </c>
@@ -4768,8 +5400,11 @@
       <c r="C3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -4779,8 +5414,11 @@
       <c r="C4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4790,8 +5428,11 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4801,8 +5442,11 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -4812,8 +5456,11 @@
       <c r="C7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -4823,8 +5470,11 @@
       <c r="C8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>490</v>
       </c>
@@ -4834,8 +5484,11 @@
       <c r="C9" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4845,8 +5498,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4856,8 +5512,11 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>330</v>
       </c>
@@ -4867,8 +5526,11 @@
       <c r="C12" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>492</v>
       </c>
@@ -4878,8 +5540,11 @@
       <c r="C13" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -4889,8 +5554,11 @@
       <c r="C14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>340</v>
       </c>
@@ -4900,8 +5568,11 @@
       <c r="C15" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>334</v>
       </c>
@@ -4911,8 +5582,11 @@
       <c r="C16" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -4922,8 +5596,11 @@
       <c r="C17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -4933,15 +5610,18 @@
       <c r="C18" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4954,10 +5634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315DE4A-0F8E-4C14-9E41-384EE060A77F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4966,7 +5646,7 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4976,8 +5656,11 @@
       <c r="C1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>326</v>
       </c>
@@ -4987,8 +5670,11 @@
       <c r="C2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4998,8 +5684,11 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -5009,8 +5698,11 @@
       <c r="C4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -5020,20 +5712,18 @@
       <c r="C5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5046,10 +5736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98333D0-FDD1-4E6D-ACC9-96B08C3E6F19}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5058,7 +5748,7 @@
     <col min="3" max="3" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5068,8 +5758,11 @@
       <c r="C1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>380</v>
       </c>
@@ -5079,8 +5772,11 @@
       <c r="C2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -5090,8 +5786,11 @@
       <c r="C3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>366</v>
       </c>
@@ -5101,8 +5800,11 @@
       <c r="C4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -5112,8 +5814,11 @@
       <c r="C5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -5123,8 +5828,11 @@
       <c r="C6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>358</v>
       </c>
@@ -5134,8 +5842,11 @@
       <c r="C7" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -5145,8 +5856,11 @@
       <c r="C8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -5156,8 +5870,11 @@
       <c r="C9" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -5167,8 +5884,11 @@
       <c r="C10" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>362</v>
       </c>
@@ -5178,8 +5898,11 @@
       <c r="C11" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>360</v>
       </c>
@@ -5189,8 +5912,11 @@
       <c r="C12" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -5200,8 +5926,11 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5211,8 +5940,11 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -5222,8 +5954,11 @@
       <c r="C15" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5233,8 +5968,11 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -5244,8 +5982,11 @@
       <c r="C17" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>378</v>
       </c>
@@ -5255,8 +5996,11 @@
       <c r="C18" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>354</v>
       </c>
@@ -5266,8 +6010,11 @@
       <c r="C19" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>368</v>
       </c>
@@ -5277,15 +6024,8 @@
       <c r="C20" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>504</v>
+      <c r="D20" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5301,7 +6041,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,7 +6061,7 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5335,7 +6075,7 @@
         <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,7 +6089,7 @@
         <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5433,7 +6173,7 @@
         <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5461,7 +6201,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5475,7 +6215,7 @@
         <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5503,7 +6243,7 @@
         <v>491</v>
       </c>
       <c r="D14" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5517,7 +6257,7 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5531,7 +6271,7 @@
         <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5545,7 +6285,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,7 +6299,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5573,7 +6313,7 @@
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5587,7 +6327,7 @@
         <v>493</v>
       </c>
       <c r="D20" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5601,7 +6341,7 @@
         <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5779,10 +6519,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870EFC34-E00C-4479-A4BB-4D899D5F0E07}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,7 +6531,7 @@
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5802,10 +6542,13 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="E1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -5818,8 +6561,11 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -5827,13 +6573,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>504</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5844,10 +6593,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5858,10 +6607,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -5872,10 +6621,10 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -5886,10 +6635,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5897,13 +6646,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5913,11 +6665,11 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>409</v>
       </c>
@@ -5930,8 +6682,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5942,10 +6697,10 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -5956,10 +6711,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -5969,8 +6724,11 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5980,8 +6738,14 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -5991,170 +6755,245 @@
       <c r="C15" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>6</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>407</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>403</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -6166,52 +7005,768 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64737948-8DE0-4D28-95C1-827DC9284B68}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539682D-86F1-4C58-939F-68E0214533A4}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
         <v>494</v>
       </c>
-      <c r="C1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85229FF3-A697-4B07-9AA9-04C20C687292}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>497</v>
+      </c>
+      <c r="E14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>414</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D25" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>417</v>
+      </c>
+      <c r="D27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>405</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>413</v>
+      </c>
+      <c r="D30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D31" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>513</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CE0FB9-2FA0-4D86-8EAD-42DFA94EF213}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/BOM/test_bom.xlsx
+++ b/BOM/test_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38FCC79-4210-4745-93C9-6D71DE7AEB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE43F3-00E3-4EAF-AD17-3470DC8850D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="2850" windowWidth="23250" windowHeight="12480" firstSheet="7" activeTab="9" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
+    <workbookView xWindow="-25845" yWindow="2850" windowWidth="23250" windowHeight="12480" firstSheet="10" activeTab="12" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="Undercarriage" sheetId="10" r:id="rId8"/>
     <sheet name="Inner Frame Brackets" sheetId="12" r:id="rId9"/>
     <sheet name="Hotend Gantry" sheetId="13" r:id="rId10"/>
+    <sheet name="Stepper Pulleys" sheetId="14" r:id="rId11"/>
+    <sheet name="Tensioners" sheetId="15" r:id="rId12"/>
+    <sheet name="Z Axis" sheetId="16" r:id="rId13"/>
+    <sheet name="Z Bed" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="525">
   <si>
     <t>Part Number</t>
   </si>
@@ -1534,9 +1538,6 @@
     <t>Heatsinks are mounted</t>
   </si>
   <si>
-    <t>Substituted PN 573 for PN576</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1610,6 +1611,18 @@
   </si>
   <si>
     <t>Thermistor, NTC 100K, E3D Cartridge</t>
+  </si>
+  <si>
+    <t>PN536</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 20mm BHCS</t>
+  </si>
+  <si>
+    <t>*These should be 20mm</t>
+  </si>
+  <si>
+    <t>Stepper, NEMA 17, 39mm, 2A</t>
   </si>
 </sst>
 </file>
@@ -1665,10 +1678,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C247" totalsRowShown="0">
-  <autoFilter ref="A1:C247" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C239">
-    <sortCondition ref="A1:A239"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C248" totalsRowShown="0">
+  <autoFilter ref="A1:C248" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C240">
+    <sortCondition ref="A1:A240"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FC6F8B93-788A-4C4D-9422-DF0E521334EB}" name="Part Number"/>
@@ -1696,6 +1709,74 @@
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9F8B3B34-71B8-4780-AC3D-CFBA5F373707}" name="Table11" displayName="Table11" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22" xr:uid="{9F8B3B34-71B8-4780-AC3D-CFBA5F373707}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5D79E4B6-C515-41D2-8337-96AD8F13DECB}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{54C010C3-D125-4C4A-9D9A-E8B738962134}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{BEC76049-5C16-498E-8829-A79C4C0A9661}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{685F753B-1BC5-4416-AD9F-71A5D921D449}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{5FA8CC8D-1D1E-4A87-A9A8-D81A60A9432A}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{184147C2-6D47-44D5-8DEE-713BA6ED30BB}" name="Table12" displayName="Table12" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16" xr:uid="{184147C2-6D47-44D5-8DEE-713BA6ED30BB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="A1:A16"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7B8F4389-60AF-4FD8-AA56-415DB0563C26}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{A5070BB7-9E83-4012-9A80-AA19E0B55E08}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{2CD5E5BB-5F53-4C6C-983F-2B114D799377}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{95FF44B6-A6A2-4264-A380-E0BFF09633DA}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{43FCCA92-9034-4C87-9953-5CC545533EAC}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4677D8E8-044A-4AF0-BBAE-205C50881D7D}" name="Table13" displayName="Table13" ref="A1:E40" totalsRowShown="0">
+  <autoFilter ref="A1:E40" xr:uid="{4677D8E8-044A-4AF0-BBAE-205C50881D7D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D6470C5F-675C-4D8D-90FF-E5CF8C883D49}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{804B8795-DFE2-4868-A27C-468CC7146331}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{83ABCEB6-3790-4702-9DDA-CEF76774FF7D}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{F5664BD4-FF77-4042-AA01-FB58C7D15788}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{80091893-93FA-45E8-A551-7788627EABEE}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{96AD6452-24D0-4DB3-95C3-E6EAE2EF4DBA}" name="Table14" displayName="Table14" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16" xr:uid="{96AD6452-24D0-4DB3-95C3-E6EAE2EF4DBA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="A1:A16"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1D2768AE-FE5B-4913-ADDC-8596FE43317F}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{8512A9AE-3EDF-43A8-BB8B-58F8512FA270}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{2B227398-8C09-4307-AEC0-9717CCA9440F}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{AB3DAD59-5361-4BC0-9552-775317F80BBB}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{AF901A55-59C2-4BAF-B41E-E5EEE003D5E0}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}" name="Table3" displayName="Table3" ref="A1:D18" totalsRowShown="0">
   <autoFilter ref="A1:D18" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}"/>
@@ -1713,13 +1794,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}" name="Table4" displayName="Table4" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{91DD0951-12C4-45D7-9DE3-B86B022468D5}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3AF7D325-0943-46F9-897D-E7521A342680}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{C092271C-F91E-44C7-ADFA-C042DEC6AE09}" name="Count"/>
     <tableColumn id="3" xr3:uid="{2B282264-1A8D-4C09-A5AB-8DA50A2B70E6}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{240641DC-D504-445C-B55D-38AD67A340A9}" name="Column1"/>
+    <tableColumn id="4" xr3:uid="{240641DC-D504-445C-B55D-38AD67A340A9}" name="Avail."/>
+    <tableColumn id="5" xr3:uid="{22275D21-3EE2-4EF9-B108-5FB01F217713}" name="Missing"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2122,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297929E-12BB-49F4-9053-3918289167CE}">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,7 +3458,7 @@
         <v>77</v>
       </c>
       <c r="C113">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,197 +3485,197 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>521</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>522</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C117">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="B119" t="s">
-        <v>474</v>
+        <v>230</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="B120" t="s">
-        <v>280</v>
+        <v>474</v>
       </c>
       <c r="C120">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="B121" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C121">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>513</v>
+        <v>324</v>
       </c>
       <c r="B122" t="s">
-        <v>514</v>
+        <v>325</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>512</v>
       </c>
       <c r="B123" t="s">
-        <v>55</v>
+        <v>513</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>463</v>
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>464</v>
+        <v>120</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
       <c r="B127" t="s">
-        <v>181</v>
+        <v>464</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C128">
-        <v>282</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C129">
-        <v>70</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C130">
-        <v>224</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C131">
-        <v>29</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>461</v>
+        <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>462</v>
+        <v>65</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="B133" t="s">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -3601,10 +3683,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="B134" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -3612,54 +3694,54 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="C135">
-        <v>133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C136">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B138" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B139" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -3667,54 +3749,54 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B140" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="B142" t="s">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="B143" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B144" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -3722,21 +3804,21 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -3744,43 +3826,43 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="C147">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="C148">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B150" t="s">
-        <v>459</v>
+        <v>300</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -3788,21 +3870,21 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B151" t="s">
-        <v>323</v>
+        <v>459</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="B152" t="s">
-        <v>445</v>
+        <v>323</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -3810,10 +3892,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>313</v>
+        <v>444</v>
       </c>
       <c r="B153" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -3821,21 +3903,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="B154" t="s">
-        <v>447</v>
+        <v>314</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>101</v>
+        <v>446</v>
       </c>
       <c r="B155" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3843,54 +3925,54 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B156" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B157" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="B158" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -3898,10 +3980,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -3909,10 +3991,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B162" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -3920,21 +4002,21 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="B163" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C164">
         <v>4</v>
@@ -3942,21 +4024,21 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B165" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B166" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -3964,10 +4046,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B167" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -3975,10 +4057,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -3986,21 +4068,21 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B169" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B170" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -4008,10 +4090,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="B171" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -4019,10 +4101,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>288</v>
+        <v>457</v>
       </c>
       <c r="B172" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -4030,10 +4112,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B173" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -4041,10 +4123,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B174" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -4052,10 +4134,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B175" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4063,10 +4145,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="B176" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4074,10 +4156,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B177" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -4085,10 +4167,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B178" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4096,10 +4178,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="B179" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4107,10 +4189,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B180" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4118,10 +4200,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4129,10 +4211,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="B182" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4140,10 +4222,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B183" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -4151,32 +4233,32 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B184" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B185" t="s">
-        <v>290</v>
+        <v>473</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B186" t="s">
-        <v>426</v>
+        <v>290</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4184,10 +4266,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -4195,10 +4277,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>425</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4206,10 +4288,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B189" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -4217,10 +4299,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>394</v>
+        <v>283</v>
       </c>
       <c r="B190" t="s">
-        <v>398</v>
+        <v>284</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -4228,10 +4310,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B191" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -4239,21 +4321,21 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B192" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B193" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -4261,10 +4343,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="B194" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -4272,21 +4354,21 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="B195" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B196" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -4294,21 +4376,21 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
       <c r="B197" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>334</v>
+        <v>471</v>
       </c>
       <c r="B198" t="s">
-        <v>335</v>
+        <v>472</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -4316,43 +4398,43 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="B199" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="B200" t="s">
-        <v>415</v>
+        <v>136</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>414</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>415</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C202">
         <v>4</v>
@@ -4360,43 +4442,43 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B203" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B205" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>475</v>
+        <v>212</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -4404,32 +4486,32 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>376</v>
+        <v>154</v>
       </c>
       <c r="B207" t="s">
-        <v>377</v>
+        <v>475</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B208" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B209" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -4437,32 +4519,32 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="B210" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="B211" t="s">
-        <v>419</v>
+        <v>308</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B212" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -4470,21 +4552,21 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
       <c r="B213" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="B214" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -4492,43 +4574,43 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="B215" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B217" t="s">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="B218" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -4536,10 +4618,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="B219" t="s">
-        <v>411</v>
+        <v>256</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -4547,10 +4629,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>146</v>
+        <v>403</v>
       </c>
       <c r="B220" t="s">
-        <v>147</v>
+        <v>411</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -4558,10 +4640,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B221" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -4569,32 +4651,32 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B222" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="B223" t="s">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>37</v>
+        <v>368</v>
       </c>
       <c r="B224" t="s">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -4602,21 +4684,21 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B226" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -4624,10 +4706,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B227" t="s">
-        <v>404</v>
+        <v>36</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -4635,10 +4717,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B228" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -4646,10 +4728,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>416</v>
+        <v>53</v>
       </c>
       <c r="B229" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -4657,32 +4739,32 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="B230" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
       <c r="C230">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>142</v>
+        <v>328</v>
       </c>
       <c r="B231" t="s">
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B232" t="s">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -4690,10 +4772,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="B233" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -4701,32 +4783,32 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="B235" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="B236" t="s">
-        <v>413</v>
+        <v>23</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4734,10 +4816,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="B237" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -4745,10 +4827,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="B238" t="s">
-        <v>489</v>
+        <v>347</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -4756,10 +4838,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>420</v>
+        <v>271</v>
       </c>
       <c r="B239" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -4767,80 +4849,91 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="B240" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B241" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C241">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B242" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="C242">
+        <v>1.2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B243" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B244" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B245" t="s">
-        <v>488</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
+        <v>483</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B246" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C246">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>490</v>
+      </c>
+      <c r="B247" t="s">
+        <v>491</v>
+      </c>
+      <c r="C247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>492</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>493</v>
       </c>
-      <c r="C247">
+      <c r="C248">
         <v>6</v>
       </c>
     </row>
@@ -4857,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15A9DFF-E6C1-4CA7-960D-8F586FF4F1A3}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4878,10 +4971,10 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4895,7 +4988,7 @@
         <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,7 +5002,7 @@
         <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,7 +5016,7 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4937,7 +5030,7 @@
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,7 +5044,7 @@
         <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4965,7 +5058,7 @@
         <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,7 +5072,7 @@
         <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4993,7 +5086,7 @@
         <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5007,7 +5100,7 @@
         <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5021,7 +5114,7 @@
         <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5035,7 +5128,7 @@
         <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5049,7 +5142,7 @@
         <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5063,7 +5156,7 @@
         <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5077,7 +5170,7 @@
         <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,7 +5184,7 @@
         <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5105,7 +5198,7 @@
         <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5119,7 +5212,7 @@
         <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5133,10 +5226,10 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5150,10 +5243,10 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5167,7 +5260,7 @@
         <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5181,7 +5274,7 @@
         <v>431</v>
       </c>
       <c r="D22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5195,7 +5288,7 @@
         <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5209,7 +5302,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5223,7 +5316,7 @@
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5248,7 +5341,7 @@
         <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5259,10 +5352,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5276,7 +5369,7 @@
         <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5290,7 +5383,7 @@
         <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5304,7 +5397,7 @@
         <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,10 +5408,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5332,12 +5425,1388 @@
         <v>388</v>
       </c>
       <c r="D33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>520</v>
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D43DC66-C2AB-44BB-8F20-39E8B69935A8}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7590DBEA-9717-4619-88AB-751AB1236D65}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6E58F-0ED0-414E-96E3-BF627E6999BD}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>461</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D28" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F012DF-1A4D-4B45-B190-CA83718A3CBB}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5373,7 +6842,7 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,7 +6856,7 @@
         <v>339</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5401,7 +6870,7 @@
         <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,7 +6884,7 @@
         <v>343</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,7 +6898,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5443,7 +6912,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5457,7 +6926,7 @@
         <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5471,7 +6940,7 @@
         <v>345</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,7 +6954,7 @@
         <v>491</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,7 +6968,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,7 +6982,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5527,7 +6996,7 @@
         <v>331</v>
       </c>
       <c r="D12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5541,7 +7010,7 @@
         <v>493</v>
       </c>
       <c r="D13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5555,7 +7024,7 @@
         <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5569,7 +7038,7 @@
         <v>341</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5583,7 +7052,7 @@
         <v>335</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5597,7 +7066,7 @@
         <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,7 +7080,7 @@
         <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,7 +7090,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5634,10 +7103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315DE4A-0F8E-4C14-9E41-384EE060A77F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5646,7 +7115,7 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5657,10 +7126,13 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>326</v>
       </c>
@@ -5673,8 +7145,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -5685,10 +7160,10 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -5699,10 +7174,10 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -5713,17 +7188,12 @@
         <v>329</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +7209,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5759,7 +7229,7 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,7 +7243,7 @@
         <v>381</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5787,7 +7257,7 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5801,7 +7271,7 @@
         <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5815,7 +7285,7 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,7 +7299,7 @@
         <v>353</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,7 +7313,7 @@
         <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5857,7 +7327,7 @@
         <v>357</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,7 +7355,7 @@
         <v>365</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5899,7 +7369,7 @@
         <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5913,7 +7383,7 @@
         <v>361</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5927,7 +7397,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5941,7 +7411,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5955,7 +7425,7 @@
         <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5969,7 +7439,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5983,7 +7453,7 @@
         <v>377</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5997,7 +7467,7 @@
         <v>379</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6011,7 +7481,7 @@
         <v>355</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6025,7 +7495,7 @@
         <v>369</v>
       </c>
       <c r="D20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +7531,7 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6075,7 +7545,7 @@
         <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,7 +7559,7 @@
         <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,7 +7643,7 @@
         <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6187,7 +7657,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,7 +7671,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,7 +7685,7 @@
         <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,7 +7713,7 @@
         <v>491</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,7 +7727,7 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6271,7 +7741,7 @@
         <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6285,7 +7755,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6299,7 +7769,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6313,7 +7783,7 @@
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,7 +7797,7 @@
         <v>493</v>
       </c>
       <c r="D20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6341,7 +7811,7 @@
         <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6542,10 +8012,10 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6573,7 +8043,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -6593,7 +8063,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6607,7 +8077,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6621,7 +8091,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6635,7 +8105,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6646,7 +8116,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -6666,7 +8136,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6697,7 +8167,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6711,7 +8181,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6725,7 +8195,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6773,7 +8243,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6787,7 +8257,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6801,7 +8271,7 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6815,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6829,7 +8299,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6854,7 +8324,7 @@
         <v>408</v>
       </c>
       <c r="D22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6868,7 +8338,7 @@
         <v>402</v>
       </c>
       <c r="D23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6882,7 +8352,7 @@
         <v>411</v>
       </c>
       <c r="D24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6913,7 +8383,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -6927,7 +8397,7 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -6941,7 +8411,7 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -6955,7 +8425,7 @@
         <v>404</v>
       </c>
       <c r="D29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -6969,7 +8439,7 @@
         <v>412</v>
       </c>
       <c r="D30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6983,17 +8453,17 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -7029,10 +8499,10 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7046,7 +8516,7 @@
         <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7077,7 +8547,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7091,7 +8561,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7105,7 +8575,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7119,7 +8589,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7144,7 +8614,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -7159,8 +8629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85229FF3-A697-4B07-9AA9-04C20C687292}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7180,10 +8650,10 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7197,7 +8667,7 @@
         <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7211,7 +8681,7 @@
         <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7225,7 +8695,7 @@
         <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7239,7 +8709,7 @@
         <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7253,7 +8723,7 @@
         <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7267,7 +8737,7 @@
         <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7281,7 +8751,7 @@
         <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7295,7 +8765,7 @@
         <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7309,7 +8779,7 @@
         <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7323,7 +8793,7 @@
         <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7337,7 +8807,7 @@
         <v>258</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7351,10 +8821,10 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7368,10 +8838,10 @@
         <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7385,7 +8855,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7399,10 +8869,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -7412,14 +8882,11 @@
       <c r="C17" t="s">
         <v>176</v>
       </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7430,10 +8897,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -7444,10 +8911,10 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -7458,10 +8925,10 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -7472,10 +8939,10 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -7486,10 +8953,10 @@
         <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -7500,10 +8967,10 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>414</v>
       </c>
@@ -7514,10 +8981,10 @@
         <v>415</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>418</v>
       </c>
@@ -7528,10 +8995,10 @@
         <v>419</v>
       </c>
       <c r="D25" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>255</v>
       </c>
@@ -7542,10 +9009,10 @@
         <v>256</v>
       </c>
       <c r="D26" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>416</v>
       </c>
@@ -7556,10 +9023,10 @@
         <v>417</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>245</v>
       </c>
@@ -7570,10 +9037,10 @@
         <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -7584,10 +9051,10 @@
         <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -7598,10 +9065,10 @@
         <v>413</v>
       </c>
       <c r="D30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -7609,13 +9076,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>420</v>
       </c>
@@ -7626,36 +9093,36 @@
         <v>421</v>
       </c>
       <c r="D32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -7691,10 +9158,10 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/BOM/test_bom.xlsx
+++ b/BOM/test_bom.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE43F3-00E3-4EAF-AD17-3470DC8850D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E05DC2-847E-4984-8B96-570A2EE00A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="2850" windowWidth="23250" windowHeight="12480" firstSheet="10" activeTab="12" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
+    <workbookView xWindow="-26700" yWindow="2715" windowWidth="23250" windowHeight="12480" firstSheet="12" activeTab="19" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="1" r:id="rId1"/>
     <sheet name="AB Steppers" sheetId="3" r:id="rId2"/>
     <sheet name="Lighting" sheetId="5" r:id="rId3"/>
     <sheet name="Filtration" sheetId="6" r:id="rId4"/>
-    <sheet name="Flooring" sheetId="7" r:id="rId5"/>
-    <sheet name="Skirt" sheetId="8" r:id="rId6"/>
-    <sheet name="Camera Stand" sheetId="9" r:id="rId7"/>
-    <sheet name="Undercarriage" sheetId="10" r:id="rId8"/>
-    <sheet name="Inner Frame Brackets" sheetId="12" r:id="rId9"/>
-    <sheet name="Hotend Gantry" sheetId="13" r:id="rId10"/>
-    <sheet name="Stepper Pulleys" sheetId="14" r:id="rId11"/>
-    <sheet name="Tensioners" sheetId="15" r:id="rId12"/>
-    <sheet name="Z Axis" sheetId="16" r:id="rId13"/>
-    <sheet name="Z Bed" sheetId="17" r:id="rId14"/>
+    <sheet name="Skirt" sheetId="8" r:id="rId5"/>
+    <sheet name="Camera Stand" sheetId="9" r:id="rId6"/>
+    <sheet name="Undercarriage" sheetId="10" r:id="rId7"/>
+    <sheet name="Hotend Gantry" sheetId="13" r:id="rId8"/>
+    <sheet name="Stepper Pulleys" sheetId="14" r:id="rId9"/>
+    <sheet name="Tensioners" sheetId="15" r:id="rId10"/>
+    <sheet name="Z Axis" sheetId="16" r:id="rId11"/>
+    <sheet name="Z Bed" sheetId="17" r:id="rId12"/>
+    <sheet name="XY Joint" sheetId="19" r:id="rId13"/>
+    <sheet name="Flooring" sheetId="7" r:id="rId14"/>
+    <sheet name="XYZ Assembly Brackets" sheetId="12" r:id="rId15"/>
+    <sheet name="XY Assembly" sheetId="21" r:id="rId16"/>
+    <sheet name="Door" sheetId="22" r:id="rId17"/>
+    <sheet name="MIsc Frame" sheetId="24" r:id="rId18"/>
+    <sheet name="Frame" sheetId="26" r:id="rId19"/>
+    <sheet name="Paneling" sheetId="25" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="534">
   <si>
     <t>Part Number</t>
   </si>
@@ -1607,9 +1613,6 @@
     <t>PTFE Tube</t>
   </si>
   <si>
-    <t>*Part cooling fan uses 2x M3x6mm, not 8mm</t>
-  </si>
-  <si>
     <t>Thermistor, NTC 100K, E3D Cartridge</t>
   </si>
   <si>
@@ -1623,14 +1626,52 @@
   </si>
   <si>
     <t>Stepper, NEMA 17, 39mm, 2A</t>
+  </si>
+  <si>
+    <t>*Actually M3x10</t>
+  </si>
+  <si>
+    <t>PN537</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 50mm BHCS</t>
+  </si>
+  <si>
+    <t>**x</t>
+  </si>
+  <si>
+    <t>**Counted 28, but likely miscounted</t>
+  </si>
+  <si>
+    <t>***Need to add 7 zip tie anchors to model</t>
+  </si>
+  <si>
+    <t>PN509</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 45mm SHCS</t>
+  </si>
+  <si>
+    <t>*Needs modeling: 1.1m PTFE tube</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 16mm SHCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1658,8 +1699,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,10 +1720,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C248" totalsRowShown="0">
-  <autoFilter ref="A1:C248" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C240">
-    <sortCondition ref="A1:A240"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}" name="Table1" displayName="Table1" ref="A1:C250" totalsRowShown="0">
+  <autoFilter ref="A1:C250" xr:uid="{B43FED6A-59F8-4F64-A346-08D196BDA3F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C242">
+    <sortCondition ref="A1:A242"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FC6F8B93-788A-4C4D-9422-DF0E521334EB}" name="Part Number"/>
@@ -1693,40 +1735,6 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3C5AFEE9-5178-4855-BADF-576CA95F04F8}" name="Table10" displayName="Table10" ref="A1:E33" totalsRowShown="0">
-  <autoFilter ref="A1:E33" xr:uid="{3C5AFEE9-5178-4855-BADF-576CA95F04F8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
-    <sortCondition ref="A1:A33"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EF6ADD95-A767-4CA6-8176-E21756FF320C}" name="Part Number"/>
-    <tableColumn id="2" xr3:uid="{CCBFDD98-EB98-4A20-AB9D-5E5291287630}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D3A790CF-21EE-41F4-8A70-808A848F24AA}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{D41968A1-A22C-498E-BF2E-6C973736E6EB}" name="Avail."/>
-    <tableColumn id="5" xr3:uid="{CE18C32B-C99D-48F0-8D9F-86AAC4F61812}" name="Missing"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9F8B3B34-71B8-4780-AC3D-CFBA5F373707}" name="Table11" displayName="Table11" ref="A1:E22" totalsRowShown="0">
-  <autoFilter ref="A1:E22" xr:uid="{9F8B3B34-71B8-4780-AC3D-CFBA5F373707}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
-    <sortCondition ref="A1:A22"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5D79E4B6-C515-41D2-8337-96AD8F13DECB}" name="Part Number"/>
-    <tableColumn id="2" xr3:uid="{54C010C3-D125-4C4A-9D9A-E8B738962134}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{BEC76049-5C16-498E-8829-A79C4C0A9661}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{685F753B-1BC5-4416-AD9F-71A5D921D449}" name="Avail"/>
-    <tableColumn id="5" xr3:uid="{5FA8CC8D-1D1E-4A87-A9A8-D81A60A9432A}" name="Missing"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{184147C2-6D47-44D5-8DEE-713BA6ED30BB}" name="Table12" displayName="Table12" ref="A1:E16" totalsRowShown="0">
   <autoFilter ref="A1:E16" xr:uid="{184147C2-6D47-44D5-8DEE-713BA6ED30BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
@@ -1743,11 +1751,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4677D8E8-044A-4AF0-BBAE-205C50881D7D}" name="Table13" displayName="Table13" ref="A1:E40" totalsRowShown="0">
-  <autoFilter ref="A1:E40" xr:uid="{4677D8E8-044A-4AF0-BBAE-205C50881D7D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
-    <sortCondition ref="A1:A40"/>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4677D8E8-044A-4AF0-BBAE-205C50881D7D}" name="Table13" displayName="Table13" ref="A1:E41" totalsRowShown="0">
+  <autoFilter ref="A1:E41" xr:uid="{4677D8E8-044A-4AF0-BBAE-205C50881D7D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D6470C5F-675C-4D8D-90FF-E5CF8C883D49}" name="Part Number"/>
@@ -1760,7 +1768,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{96AD6452-24D0-4DB3-95C3-E6EAE2EF4DBA}" name="Table14" displayName="Table14" ref="A1:E16" totalsRowShown="0">
   <autoFilter ref="A1:E16" xr:uid="{96AD6452-24D0-4DB3-95C3-E6EAE2EF4DBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
@@ -1777,6 +1785,124 @@
 </table>
 </file>
 
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{FBC121BE-6BD7-499B-85ED-E1C24C09D6CE}" name="Table16" displayName="Table16" ref="A1:E24" totalsRowShown="0">
+  <autoFilter ref="A1:E24" xr:uid="{FBC121BE-6BD7-499B-85ED-E1C24C09D6CE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
+    <sortCondition ref="A1:A24"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{48DB2D12-0C89-4400-B3CC-E4AF82548F67}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{ED81AD06-60C3-44AB-B6D1-7CD859966E51}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{381BAD77-73FA-4BB8-8553-36D4AF683AF2}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{6497613A-6EC1-4046-93CE-02920F8C273C}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{C2101108-8775-4BB3-9DF8-49EF565CC68A}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D28BA82F-5FED-42EA-969F-DBA3D6BA4061}" name="Table6" displayName="Table6" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{D28BA82F-5FED-42EA-969F-DBA3D6BA4061}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
+    <sortCondition ref="A1:A33"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D09F8866-4240-455E-ABBC-5F24C26BA305}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{DEE7A7AF-F8F9-49F3-8B8F-7B3541756EB8}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{5FF84E4F-FE87-4543-B351-24452CC4335E}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{80D4FB9A-F3F3-4A2E-9414-0980B707BD61}" name="Avail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B191DBE4-1DEC-4792-B3C8-07E318974212}" name="Table9" displayName="Table9" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{B191DBE4-1DEC-4792-B3C8-07E318974212}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{39B36E9E-AA60-4FF5-BEE1-2FFB9FC7F05A}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{16248FB2-A214-4288-B87D-82F6F46B6188}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{B538C434-C952-4EBE-ACDA-977D9EB4D52C}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{0BE0E2DB-005D-40AA-82E9-CC53F372B9DC}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{80C9E52C-DFC8-4A0E-922B-4C47C3F662D1}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8C0DF8A5-F0A4-471F-910C-131E5192EFE3}" name="Table318" displayName="Table318" ref="A1:E23" totalsRowShown="0">
+  <autoFilter ref="A1:E23" xr:uid="{8C0DF8A5-F0A4-471F-910C-131E5192EFE3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A1:A23"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0E1A5CAB-200A-4BE9-8E74-4DEFF79112D1}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{CFBA12B0-E663-4D26-BBEC-D0EC8893E733}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{C755F6BF-716F-45E2-8FD3-278FD144921B}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{87930C71-B1DB-46AF-A87A-FA288C18B4F6}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{75CC898F-BF8B-4C42-A80B-D9B2811F438B}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{35301BD0-FE98-4BB2-8D56-32AB0A068679}" name="Table18" displayName="Table18" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16" xr:uid="{35301BD0-FE98-4BB2-8D56-32AB0A068679}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="A1:A16"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3BE42CFF-41E9-4F72-9A57-253492E67502}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{C41C2470-4D16-46C1-9221-0B5EE1A3449E}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{86509DAC-4FD4-486C-AD5B-ED3E1045C0DA}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{45163672-5CD3-4687-AEE2-EEE9D8DB178B}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{7EA1C0F3-91D7-4D96-9AD7-C9D89DA19E26}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{9DFC6B7A-539E-41B4-B413-4A7727616E94}" name="Table19" displayName="Table19" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{9DFC6B7A-539E-41B4-B413-4A7727616E94}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2345DA1E-CC26-4185-AEC6-E5475763D2E6}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{387E0312-1F23-4078-A39D-D6EB1374FDD6}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{163FA4FA-7053-4C6A-AE43-F12AC53A927A}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{CCFBA6AF-095F-422E-85D3-E417BC64F642}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{E6672077-F0A6-4818-9706-80D9EC3A5714}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{10BE4628-5C20-43B3-988D-B37B55D62227}" name="Table21" displayName="Table21" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{10BE4628-5C20-43B3-988D-B37B55D62227}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition ref="A1:A14"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A3B0C701-0DFC-4BA1-B736-F7327CDDD009}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{0A948535-F59A-4168-8D8D-1835BE585AB8}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{77ECFCEA-5EE3-4A31-9BE5-616B0A4DC013}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{8C0EF57D-51F1-4A2A-B0A7-36A944A78825}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{90627BA2-6206-403C-B4AC-FB7C11FF84E4}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}" name="Table3" displayName="Table3" ref="A1:D18" totalsRowShown="0">
   <autoFilter ref="A1:D18" xr:uid="{A44C952F-8960-4DF5-B8BF-962E933E62DA}"/>
@@ -1788,6 +1914,23 @@
     <tableColumn id="2" xr3:uid="{F7DD62CF-2F6F-49F3-8DAA-443B0C927674}" name="Count"/>
     <tableColumn id="3" xr3:uid="{AE298627-46B5-4DCB-B408-560D27EDABF9}" name="Description"/>
     <tableColumn id="4" xr3:uid="{C6B7A359-C715-47B1-B7AE-50E9178202C0}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{D10B6915-801C-41BA-B0AD-43E5EDB88F43}" name="Table20" displayName="Table20" ref="A1:E26" totalsRowShown="0">
+  <autoFilter ref="A1:E26" xr:uid="{D10B6915-801C-41BA-B0AD-43E5EDB88F43}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition ref="A1:A26"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{25F46797-7931-46A1-AEA2-B257D9247091}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{B6A0F446-2C8B-4BA7-9249-6AD26EC88781}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{8A31FD83-8700-49D5-98B1-ED816FCF2423}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{9AFC6831-7850-42AD-A817-AF50E64DC5AE}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{F8703BE2-432D-4210-9A3A-D429F00F3878}" name="Missing"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1824,22 +1967,6 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D28BA82F-5FED-42EA-969F-DBA3D6BA4061}" name="Table6" displayName="Table6" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33" xr:uid="{D28BA82F-5FED-42EA-969F-DBA3D6BA4061}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
-    <sortCondition ref="A1:A33"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D09F8866-4240-455E-ABBC-5F24C26BA305}" name="Part Number"/>
-    <tableColumn id="2" xr3:uid="{DEE7A7AF-F8F9-49F3-8B8F-7B3541756EB8}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5FF84E4F-FE87-4543-B351-24452CC4335E}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{80D4FB9A-F3F3-4A2E-9414-0980B707BD61}" name="Avail"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C935238-2807-420D-8F9A-F58A7A512EA7}" name="Table7" displayName="Table7" ref="A1:E31" totalsRowShown="0">
   <autoFilter ref="A1:E31" xr:uid="{9C935238-2807-420D-8F9A-F58A7A512EA7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
@@ -1856,7 +1983,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E509259-0E4E-47B3-BD8A-C0E9F8AF6634}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0">
   <autoFilter ref="A1:E9" xr:uid="{6E509259-0E4E-47B3-BD8A-C0E9F8AF6634}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
@@ -1873,7 +2000,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5AE6B19B-26D4-4AA5-B342-D4AD4C9B9E6E}" name="Table8" displayName="Table8" ref="A1:E33" totalsRowShown="0">
   <autoFilter ref="A1:E33" xr:uid="{5AE6B19B-26D4-4AA5-B342-D4AD4C9B9E6E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E32">
@@ -1890,18 +2017,35 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B191DBE4-1DEC-4792-B3C8-07E318974212}" name="Table9" displayName="Table9" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{B191DBE4-1DEC-4792-B3C8-07E318974212}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
-    <sortCondition ref="A1:A7"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3C5AFEE9-5178-4855-BADF-576CA95F04F8}" name="Table10" displayName="Table10" ref="A1:E33" totalsRowShown="0">
+  <autoFilter ref="A1:E33" xr:uid="{3C5AFEE9-5178-4855-BADF-576CA95F04F8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{39B36E9E-AA60-4FF5-BEE1-2FFB9FC7F05A}" name="Part Number"/>
-    <tableColumn id="2" xr3:uid="{16248FB2-A214-4288-B87D-82F6F46B6188}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B538C434-C952-4EBE-ACDA-977D9EB4D52C}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{0BE0E2DB-005D-40AA-82E9-CC53F372B9DC}" name="Avail"/>
-    <tableColumn id="5" xr3:uid="{80C9E52C-DFC8-4A0E-922B-4C47C3F662D1}" name="Missing"/>
+    <tableColumn id="1" xr3:uid="{EF6ADD95-A767-4CA6-8176-E21756FF320C}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{CCBFDD98-EB98-4A20-AB9D-5E5291287630}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{D3A790CF-21EE-41F4-8A70-808A848F24AA}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{D41968A1-A22C-498E-BF2E-6C973736E6EB}" name="Avail."/>
+    <tableColumn id="5" xr3:uid="{CE18C32B-C99D-48F0-8D9F-86AAC4F61812}" name="Missing"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9F8B3B34-71B8-4780-AC3D-CFBA5F373707}" name="Table11" displayName="Table11" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22" xr:uid="{9F8B3B34-71B8-4780-AC3D-CFBA5F373707}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5D79E4B6-C515-41D2-8337-96AD8F13DECB}" name="Part Number"/>
+    <tableColumn id="2" xr3:uid="{54C010C3-D125-4C4A-9D9A-E8B738962134}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{BEC76049-5C16-498E-8829-A79C4C0A9661}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{685F753B-1BC5-4416-AD9F-71A5D921D449}" name="Avail"/>
+    <tableColumn id="5" xr3:uid="{5FA8CC8D-1D1E-4A87-A9A8-D81A60A9432A}" name="Missing"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2204,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297929E-12BB-49F4-9053-3918289167CE}">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,7 +3503,7 @@
         <v>194</v>
       </c>
       <c r="C104">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3370,7 +3514,7 @@
         <v>196</v>
       </c>
       <c r="C105">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3430,98 +3574,98 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>530</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>531</v>
       </c>
       <c r="C111">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C112">
-        <v>221</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>32</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C114">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>521</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
-        <v>522</v>
+        <v>345</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>521</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>526</v>
       </c>
       <c r="C118">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -3529,32 +3673,32 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
-        <v>474</v>
+        <v>176</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="C121">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B122" t="s">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="C122">
         <v>8</v>
@@ -3562,32 +3706,32 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>512</v>
+        <v>279</v>
       </c>
       <c r="B123" t="s">
-        <v>513</v>
+        <v>280</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="C124">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>512</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>513</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -3595,109 +3739,109 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C126">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
       <c r="B127" t="s">
-        <v>464</v>
+        <v>202</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>463</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="C129">
-        <v>279</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="C130">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131">
-        <v>221</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C132">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>462</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="B134" t="s">
-        <v>331</v>
+        <v>65</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>231</v>
+        <v>461</v>
       </c>
       <c r="B135" t="s">
-        <v>232</v>
+        <v>462</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -3705,208 +3849,208 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="C136">
-        <v>133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="C137">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C138">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B139" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B140" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B141" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>340</v>
+        <v>56</v>
       </c>
       <c r="B143" t="s">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="B144" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="B145" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>233</v>
+        <v>389</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>390</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>392</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="C148">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B149" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>459</v>
+        <v>174</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B152" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>444</v>
+        <v>317</v>
       </c>
       <c r="B153" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -3914,87 +4058,87 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B155" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="B156" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>446</v>
       </c>
       <c r="B157" t="s">
-        <v>59</v>
+        <v>447</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B158" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -4002,10 +4146,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B163" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -4013,54 +4157,54 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="B164" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B167" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B168" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -4068,10 +4212,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -4079,32 +4223,32 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B171" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>457</v>
+        <v>319</v>
       </c>
       <c r="B172" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -4112,10 +4256,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="B173" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -4123,10 +4267,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>287</v>
+        <v>457</v>
       </c>
       <c r="B174" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -4134,10 +4278,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B175" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4145,10 +4289,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B176" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4156,10 +4300,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="B177" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -4167,10 +4311,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="B178" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4178,10 +4322,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B179" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4189,10 +4333,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="B180" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4200,10 +4344,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>272</v>
+        <v>386</v>
       </c>
       <c r="B181" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4211,10 +4355,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
       <c r="B182" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4222,10 +4366,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -4233,10 +4377,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="B184" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -4244,21 +4388,21 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B186" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4266,21 +4410,21 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B188" t="s">
-        <v>425</v>
+        <v>290</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4288,10 +4432,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>282</v>
+        <v>426</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -4299,10 +4443,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
-        <v>284</v>
+        <v>425</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -4310,10 +4454,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
-        <v>398</v>
+        <v>282</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -4321,10 +4465,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>395</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -4332,32 +4476,32 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B193" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B194" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="B195" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -4365,109 +4509,109 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B196" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="B197" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>471</v>
+        <v>387</v>
       </c>
       <c r="B198" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="B199" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>135</v>
+        <v>471</v>
       </c>
       <c r="B200" t="s">
-        <v>136</v>
+        <v>472</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>414</v>
+        <v>334</v>
       </c>
       <c r="B201" t="s">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>414</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>415</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C205">
         <v>4</v>
@@ -4475,10 +4619,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -4486,32 +4630,32 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="B207" t="s">
-        <v>475</v>
+        <v>198</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>154</v>
       </c>
       <c r="B209" t="s">
-        <v>379</v>
+        <v>475</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -4519,32 +4663,32 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="B210" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="B211" t="s">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="B212" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -4552,65 +4696,65 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="B213" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="B214" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>227</v>
+        <v>407</v>
       </c>
       <c r="B215" t="s">
-        <v>228</v>
+        <v>408</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="B216" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="B217" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="B218" t="s">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -4618,21 +4762,21 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="B219" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>403</v>
+        <v>17</v>
       </c>
       <c r="B220" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -4640,10 +4784,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="B221" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -4651,10 +4795,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>169</v>
+        <v>403</v>
       </c>
       <c r="B222" t="s">
-        <v>170</v>
+        <v>411</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -4662,65 +4806,65 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B223" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>368</v>
+        <v>169</v>
       </c>
       <c r="B224" t="s">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B225" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="B226" t="s">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B227" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B228" t="s">
-        <v>404</v>
+        <v>48</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -4728,10 +4872,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>486</v>
+        <v>36</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -4739,10 +4883,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>416</v>
+        <v>32</v>
       </c>
       <c r="B230" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -4750,21 +4894,21 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="B231" t="s">
-        <v>329</v>
+        <v>486</v>
       </c>
       <c r="C231">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>142</v>
+        <v>416</v>
       </c>
       <c r="B232" t="s">
-        <v>143</v>
+        <v>417</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -4772,21 +4916,21 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="B233" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="B234" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -4794,21 +4938,21 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>388</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4816,21 +4960,21 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>405</v>
+        <v>243</v>
       </c>
       <c r="B237" t="s">
-        <v>413</v>
+        <v>244</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="B238" t="s">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -4838,10 +4982,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>271</v>
+        <v>405</v>
       </c>
       <c r="B239" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -4849,10 +4993,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="B240" t="s">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -4860,80 +5004,102 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>476</v>
+        <v>271</v>
       </c>
       <c r="B241" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="B242" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="C242">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B243" t="s">
-        <v>481</v>
+        <v>477</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B244" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="C244">
+        <v>1.2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B245" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B246" t="s">
-        <v>488</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
+        <v>482</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B247" t="s">
-        <v>491</v>
-      </c>
-      <c r="C247">
-        <v>6</v>
+        <v>483</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>487</v>
+      </c>
+      <c r="B248" t="s">
+        <v>488</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>490</v>
+      </c>
+      <c r="B249" t="s">
+        <v>491</v>
+      </c>
+      <c r="C249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>492</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B250" t="s">
         <v>493</v>
       </c>
-      <c r="C248">
+      <c r="C250">
         <v>6</v>
       </c>
     </row>
@@ -4947,836 +5113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15A9DFF-E6C1-4CA7-960D-8F586FF4F1A3}">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>496</v>
-      </c>
-      <c r="E19" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>496</v>
-      </c>
-      <c r="E20" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>430</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>431</v>
-      </c>
-      <c r="D22" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>518</v>
-      </c>
-      <c r="D28" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>520</v>
-      </c>
-      <c r="D32" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>388</v>
-      </c>
-      <c r="D33" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>519</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D43DC66-C2AB-44BB-8F20-39E8B69935A8}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>521</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>522</v>
-      </c>
-      <c r="D13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>496</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7590DBEA-9717-4619-88AB-751AB1236D65}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5846,8 +5187,8 @@
       <c r="C4" t="s">
         <v>118</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5860,8 +5201,8 @@
       <c r="C5" t="s">
         <v>116</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="D5" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5916,11 +5257,8 @@
       <c r="C9" t="s">
         <v>100</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5947,12 +5285,6 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6023,7 +5355,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -6034,12 +5366,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6E58F-0ED0-414E-96E3-BF627E6999BD}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,6 +5407,9 @@
       <c r="C2" t="s">
         <v>222</v>
       </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6086,6 +5421,9 @@
       <c r="C3" t="s">
         <v>188</v>
       </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6097,6 +5435,9 @@
       <c r="C4" t="s">
         <v>186</v>
       </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6108,6 +5449,9 @@
       <c r="C5" t="s">
         <v>236</v>
       </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6119,6 +5463,9 @@
       <c r="C6" t="s">
         <v>238</v>
       </c>
+      <c r="D6" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6195,7 +5542,7 @@
         <v>441</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>442</v>
@@ -6209,10 +5556,13 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6220,13 +5570,13 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14">
-        <v>4</v>
+      <c r="D14" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6295,8 +5645,8 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
-        <v>12</v>
+      <c r="D19" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6315,13 +5665,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>525</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>526</v>
       </c>
       <c r="D21" t="s">
         <v>496</v>
@@ -6329,85 +5679,94 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>230</v>
+      </c>
+      <c r="D22" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>54</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>464</v>
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>463</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>464</v>
+      </c>
+      <c r="D24" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>461</v>
+        <v>64</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>462</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>496</v>
@@ -6415,49 +5774,52 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>461</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>462</v>
+      </c>
+      <c r="D29" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D30" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>389</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>391</v>
-      </c>
-      <c r="D31" t="s">
-        <v>496</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D32" t="s">
         <v>496</v>
@@ -6465,13 +5827,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="D33" t="s">
         <v>496</v>
@@ -6479,13 +5841,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
         <v>496</v>
@@ -6493,87 +5855,132 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="D35" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>226</v>
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>226</v>
+      </c>
+      <c r="D37" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
+        <v>220</v>
+      </c>
+      <c r="D38" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>524</v>
+        <v>224</v>
+      </c>
+      <c r="D39" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>523</v>
+      </c>
+      <c r="D40" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>87</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
         <v>88</v>
       </c>
-      <c r="D40" t="s">
-        <v>496</v>
+      <c r="D41" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F012DF-1A4D-4B45-B190-CA83718A3CBB}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,6 +6213,1912 @@
         <v>212</v>
       </c>
       <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15529121-903A-4308-A686-B723218013A4}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EDB47-D3CC-45F5-8D37-FE89DA3FE47C}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>398</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>397</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>470</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>467</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>471</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CE0FB9-2FA0-4D86-8EAD-42DFA94EF213}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A23F612-083D-4109-BF61-CBFBD1F55359}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4B588-54D5-451E-8E1E-4C64D9D2D2AE}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>460</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C69A1-F2ED-4205-AF87-EC4AEAD77AF7}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB98FF3E-6E4A-495B-A360-170A8340A45A}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7101,12 +8414,326 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F28B24-FF4C-4F33-8841-5FAF9BBFE4A4}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>454</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315DE4A-0F8E-4C14-9E41-384EE060A77F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7209,7 +8836,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7340,8 +8967,8 @@
       <c r="C9" t="s">
         <v>373</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -7507,492 +9134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EDB47-D3CC-45F5-8D37-FE89DA3FE47C}">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>490</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>491</v>
-      </c>
-      <c r="D14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>492</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>493</v>
-      </c>
-      <c r="D20" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>383</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>465</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>384</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>466</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>386</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>468</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>394</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>398</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>395</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>399</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>396</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>400</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>397</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>401</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>387</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>470</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>467</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>471</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>472</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870EFC34-E00C-4479-A4BB-4D899D5F0E07}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8028,11 +9174,8 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8045,11 +9188,8 @@
       <c r="C3" t="s">
         <v>503</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8118,11 +9258,8 @@
       <c r="C8" t="s">
         <v>510</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8149,11 +9286,8 @@
       <c r="C10" t="s">
         <v>410</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="D10" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8225,11 +9359,8 @@
       <c r="C15" t="s">
         <v>134</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
+      <c r="D15" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8246,7 +9377,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -8260,7 +9391,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -8274,7 +9405,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -8288,7 +9419,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -8302,7 +9433,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -8313,7 +9444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>407</v>
       </c>
@@ -8327,7 +9458,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -8341,7 +9472,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>403</v>
       </c>
@@ -8355,7 +9486,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -8365,14 +9496,11 @@
       <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -8386,7 +9514,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -8400,7 +9528,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -8414,7 +9542,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -8428,7 +9556,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -8442,7 +9570,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -8474,12 +9602,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539682D-86F1-4C58-939F-68E0214533A4}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8529,11 +9657,8 @@
       <c r="C3" t="s">
         <v>351</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8625,12 +9750,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85229FF3-A697-4B07-9AA9-04C20C687292}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9133,18 +10258,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CE0FB9-2FA0-4D86-8EAD-42DFA94EF213}">
-  <dimension ref="A1:E7"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15A9DFF-E6C1-4CA7-960D-8F586FF4F1A3}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9158,7 +10283,7 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="E1" t="s">
         <v>506</v>
@@ -9166,68 +10291,777 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>160</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21">
         <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D28" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>519</v>
+      </c>
+      <c r="D32" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D43DC66-C2AB-44BB-8F20-39E8B69935A8}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/test_bom.xlsx
+++ b/BOM/test_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E05DC2-847E-4984-8B96-570A2EE00A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10782E2A-1A0F-421F-B91F-DA1CE34666BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="2715" windowWidth="23250" windowHeight="12480" firstSheet="12" activeTab="19" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="12" activeTab="16" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="536">
   <si>
     <t>Part Number</t>
   </si>
@@ -1656,6 +1656,12 @@
   </si>
   <si>
     <t>Screw, M5-0.8 x 16mm SHCS</t>
+  </si>
+  <si>
+    <t>Screw, #8 x 3/4", Truss Head, Sharp Point</t>
+  </si>
+  <si>
+    <t>PN558</t>
   </si>
 </sst>
 </file>
@@ -7533,8 +7539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4B588-54D5-451E-8E1E-4C64D9D2D2AE}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7626,11 +7632,8 @@
       <c r="C6" t="s">
         <v>325</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
+      <c r="D6" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7755,6 +7758,9 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -7768,6 +7774,9 @@
       </c>
       <c r="D16">
         <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8418,14 +8427,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F28B24-FF4C-4F33-8841-5FAF9BBFE4A4}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8491,13 +8500,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>535</v>
       </c>
       <c r="B6">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/BOM/test_bom.xlsx
+++ b/BOM/test_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10782E2A-1A0F-421F-B91F-DA1CE34666BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBC2B7-456B-4879-A5E6-EF279C4B7FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="12" activeTab="16" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="10" activeTab="19" xr2:uid="{04124F10-CBA9-4B4B-939A-D306B0DD48EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="539">
   <si>
     <t>Part Number</t>
   </si>
@@ -1658,10 +1658,19 @@
     <t>Screw, M5-0.8 x 16mm SHCS</t>
   </si>
   <si>
-    <t>Screw, #8 x 3/4", Truss Head, Sharp Point</t>
-  </si>
-  <si>
     <t>PN558</t>
+  </si>
+  <si>
+    <t>Wood Panel, Front Center</t>
+  </si>
+  <si>
+    <t>Piano Hinge, 24" x 1.25"</t>
+  </si>
+  <si>
+    <t>Wood Strip, 1/2" x 1/2" x 24"</t>
+  </si>
+  <si>
+    <t>Screw, Wood, #8 x 5/8", Truss Head</t>
   </si>
 </sst>
 </file>
@@ -6591,7 +6600,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7055,8 +7064,8 @@
       <c r="C33" t="s">
         <v>472</v>
       </c>
-      <c r="D33">
-        <v>0</v>
+      <c r="D33" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -7539,7 +7548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4B588-54D5-451E-8E1E-4C64D9D2D2AE}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -8427,8 +8436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F28B24-FF4C-4F33-8841-5FAF9BBFE4A4}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8470,7 +8479,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -8481,7 +8490,7 @@
         <v>76</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -8500,13 +8509,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B6">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8522,134 +8531,137 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>536</v>
+      </c>
+      <c r="D11" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>457</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8660,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9763,7 +9775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85229FF3-A697-4B07-9AA9-04C20C687292}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
